--- a/RA/Nani_2022/T_11/T11_G4_5_Coding_explanation.xlsx
+++ b/RA/Nani_2022/T_11/T11_G4_5_Coding_explanation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tctan\Dropbox (UiO)\Nani\2022\T_11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Dropbox (UiO)\Nani\2022\T_11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FCE7DE-3B92-44C0-874F-D23CF4B058C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87393BCF-A65A-4DD7-A06D-33747EBD5E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{746C5153-993A-4D34-9FB4-52770A3E65E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{746C5153-993A-4D34-9FB4-52770A3E65E7}"/>
   </bookViews>
   <sheets>
     <sheet name="1_G4_PV" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3600" uniqueCount="1984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3601" uniqueCount="1985">
   <si>
     <t>IDCNTRY</t>
   </si>
@@ -5993,13 +5993,16 @@
   </si>
   <si>
     <t>TIMSS cnstruct: Student engaged in math lessons</t>
+  </si>
+  <si>
+    <t>Percentage of affluent students attending the school</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6034,26 +6037,14 @@
       <family val="3"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <name val="Fira Code"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6080,7 +6071,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6097,7 +6088,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6150,12 +6141,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6177,26 +6162,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8289,15 +8265,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002BDED7-C15A-4121-ADEB-CC76BB47DC97}">
   <dimension ref="A1:G223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
@@ -8334,7 +8310,7 @@
       <c r="B2" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="15" t="s">
         <v>1305</v>
       </c>
@@ -8351,7 +8327,7 @@
       <c r="B3" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="15" t="s">
         <v>1306</v>
       </c>
@@ -8370,7 +8346,7 @@
       <c r="B4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="15" t="s">
         <v>1307</v>
       </c>
@@ -8387,7 +8363,7 @@
       <c r="B5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="15" t="s">
         <v>1308</v>
       </c>
@@ -8404,7 +8380,7 @@
       <c r="B6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="15" t="s">
         <v>1309</v>
       </c>
@@ -8421,7 +8397,7 @@
       <c r="B7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="15" t="s">
         <v>1316</v>
       </c>
@@ -8438,7 +8414,7 @@
         <v>1880</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="24"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="15" t="s">
         <v>1904</v>
       </c>
@@ -8455,7 +8431,7 @@
         <v>1881</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="24"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="15" t="s">
         <v>1905</v>
       </c>
@@ -8472,7 +8448,7 @@
         <v>1882</v>
       </c>
       <c r="B10" s="15"/>
-      <c r="C10" s="21"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="15" t="s">
         <v>1906</v>
       </c>
@@ -8488,7 +8464,7 @@
         <v>729</v>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="24"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="15" t="s">
         <v>1907</v>
       </c>
@@ -8522,7 +8498,7 @@
         <v>1883</v>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="24"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="15" t="s">
         <v>1909</v>
       </c>
@@ -8539,7 +8515,7 @@
         <v>731</v>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="24"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="15" t="s">
         <v>1910</v>
       </c>
@@ -8558,7 +8534,7 @@
       <c r="B15" s="10" t="s">
         <v>860</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="19" t="s">
         <v>897</v>
       </c>
       <c r="D15" s="15" t="s">
@@ -8581,7 +8557,7 @@
       <c r="B16" s="10" t="s">
         <v>1960</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="22" t="s">
         <v>1962</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -8602,7 +8578,7 @@
       <c r="B17" s="10" t="s">
         <v>1959</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="22" t="s">
         <v>1961</v>
       </c>
       <c r="D17" s="15" t="s">
@@ -8922,7 +8898,7 @@
       <c r="B31" s="13" t="s">
         <v>1968</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="26" t="s">
         <v>1970</v>
       </c>
       <c r="D31" s="15" t="s">
@@ -8945,7 +8921,7 @@
       <c r="B32" s="13" t="s">
         <v>1968</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="26" t="s">
         <v>1969</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -8968,7 +8944,7 @@
       <c r="B33" s="13" t="s">
         <v>1968</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="20" t="s">
         <v>1971</v>
       </c>
       <c r="D33" s="15" t="s">
@@ -8991,7 +8967,7 @@
       <c r="B34" s="13" t="s">
         <v>1972</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="20" t="s">
         <v>1973</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -9014,7 +8990,7 @@
       <c r="B35" s="13" t="s">
         <v>1972</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="20" t="s">
         <v>1974</v>
       </c>
       <c r="D35" s="15" t="s">
@@ -9037,7 +9013,7 @@
       <c r="B36" s="13" t="s">
         <v>1972</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="23" t="s">
         <v>1975</v>
       </c>
       <c r="D36" s="15" t="s">
@@ -9060,7 +9036,7 @@
       <c r="B37" s="13" t="s">
         <v>1972</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="20" t="s">
         <v>1976</v>
       </c>
       <c r="D37" s="15" t="s">
@@ -9159,7 +9135,7 @@
         <v>820</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>536</v>
+        <v>574</v>
       </c>
       <c r="F41" s="16">
         <v>9</v>
@@ -9182,7 +9158,7 @@
         <v>821</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>536</v>
+        <v>574</v>
       </c>
       <c r="F42" s="16">
         <v>9</v>
@@ -9205,7 +9181,7 @@
         <v>822</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>536</v>
+        <v>574</v>
       </c>
       <c r="F43" s="16">
         <v>9</v>
@@ -9228,7 +9204,7 @@
         <v>823</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>536</v>
+        <v>574</v>
       </c>
       <c r="F44" s="16">
         <v>9</v>
@@ -9251,7 +9227,7 @@
         <v>824</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>536</v>
+        <v>574</v>
       </c>
       <c r="F45" s="16">
         <v>9</v>
@@ -9274,7 +9250,7 @@
         <v>825</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>536</v>
+        <v>574</v>
       </c>
       <c r="F46" s="16">
         <v>9</v>
@@ -9319,8 +9295,8 @@
       <c r="D48" s="15" t="s">
         <v>827</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>536</v>
+      <c r="E48" s="27" t="s">
+        <v>574</v>
       </c>
       <c r="F48" s="16">
         <v>9</v>
@@ -9342,8 +9318,8 @@
       <c r="D49" s="15" t="s">
         <v>828</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>536</v>
+      <c r="E49" s="27" t="s">
+        <v>574</v>
       </c>
       <c r="F49" s="16">
         <v>9</v>
@@ -9405,7 +9381,7 @@
       <c r="B52" s="13" t="s">
         <v>865</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="23" t="s">
         <v>1979</v>
       </c>
       <c r="D52" s="15" t="s">
@@ -9451,14 +9427,14 @@
       <c r="B54" s="13" t="s">
         <v>866</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="23" t="s">
         <v>1978</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>1923</v>
       </c>
-      <c r="E54" s="19" t="s">
-        <v>536</v>
+      <c r="E54" s="27" t="s">
+        <v>574</v>
       </c>
       <c r="F54" s="16">
         <v>9</v>
@@ -9572,8 +9548,8 @@
       <c r="D59" s="15" t="s">
         <v>836</v>
       </c>
-      <c r="E59" s="19" t="s">
-        <v>536</v>
+      <c r="E59" s="27" t="s">
+        <v>574</v>
       </c>
       <c r="F59" s="16">
         <v>9</v>
@@ -9595,8 +9571,8 @@
       <c r="D60" s="15" t="s">
         <v>837</v>
       </c>
-      <c r="E60" s="19" t="s">
-        <v>536</v>
+      <c r="E60" s="27" t="s">
+        <v>574</v>
       </c>
       <c r="F60" s="16">
         <v>9</v>
@@ -9687,8 +9663,8 @@
       <c r="D64" s="15" t="s">
         <v>841</v>
       </c>
-      <c r="E64" s="19" t="s">
-        <v>536</v>
+      <c r="E64" s="27" t="s">
+        <v>574</v>
       </c>
       <c r="F64" s="16">
         <v>9</v>
@@ -9733,8 +9709,8 @@
       <c r="D66" s="15" t="s">
         <v>843</v>
       </c>
-      <c r="E66" s="19" t="s">
-        <v>536</v>
+      <c r="E66" s="27" t="s">
+        <v>574</v>
       </c>
       <c r="F66" s="16">
         <v>9</v>
@@ -9750,7 +9726,7 @@
       <c r="B67" s="13" t="s">
         <v>868</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="23" t="s">
         <v>1981</v>
       </c>
       <c r="D67" s="15" t="s">
@@ -9779,8 +9755,8 @@
       <c r="D68" s="15" t="s">
         <v>844</v>
       </c>
-      <c r="E68" s="19" t="s">
-        <v>536</v>
+      <c r="E68" s="27" t="s">
+        <v>574</v>
       </c>
       <c r="F68" s="16">
         <v>9</v>
@@ -9842,7 +9818,7 @@
       <c r="B71" s="13" t="s">
         <v>868</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="23" t="s">
         <v>1980</v>
       </c>
       <c r="D71" s="15" t="s">
@@ -9888,14 +9864,14 @@
       <c r="B73" s="13" t="s">
         <v>869</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="23" t="s">
         <v>1982</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>1926</v>
       </c>
-      <c r="E73" s="13" t="s">
-        <v>536</v>
+      <c r="E73" s="27" t="s">
+        <v>574</v>
       </c>
       <c r="F73" s="16">
         <v>9</v>
@@ -10009,7 +9985,7 @@
       <c r="D78" s="15" t="s">
         <v>852</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="27" t="s">
         <v>536</v>
       </c>
       <c r="F78" s="16">
@@ -10032,7 +10008,7 @@
       <c r="D79" s="15" t="s">
         <v>853</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="27" t="s">
         <v>536</v>
       </c>
       <c r="F79" s="16">
@@ -10101,7 +10077,7 @@
       <c r="D82" s="15" t="s">
         <v>856</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="27" t="s">
         <v>536</v>
       </c>
       <c r="F82" s="16">
@@ -10218,7 +10194,7 @@
         <v>1123</v>
       </c>
       <c r="B89" s="10"/>
-      <c r="C89" s="24"/>
+      <c r="C89" s="22"/>
       <c r="D89" s="15" t="s">
         <v>1324</v>
       </c>
@@ -10235,7 +10211,7 @@
         <v>1124</v>
       </c>
       <c r="B90" s="10"/>
-      <c r="C90" s="24"/>
+      <c r="C90" s="22"/>
       <c r="D90" s="15" t="s">
         <v>1325</v>
       </c>
@@ -10252,7 +10228,7 @@
         <v>786</v>
       </c>
       <c r="B91" s="10"/>
-      <c r="C91" s="21"/>
+      <c r="C91" s="19"/>
       <c r="D91" s="15" t="s">
         <v>1931</v>
       </c>
@@ -10269,7 +10245,7 @@
         <v>787</v>
       </c>
       <c r="B92" s="10"/>
-      <c r="C92" s="24"/>
+      <c r="C92" s="22"/>
       <c r="D92" s="15" t="s">
         <v>1932</v>
       </c>
@@ -10286,7 +10262,7 @@
         <v>788</v>
       </c>
       <c r="B93" s="10"/>
-      <c r="C93" s="24"/>
+      <c r="C93" s="22"/>
       <c r="D93" s="15" t="s">
         <v>1933</v>
       </c>
@@ -10303,7 +10279,7 @@
         <v>789</v>
       </c>
       <c r="B94" s="10"/>
-      <c r="C94" s="21"/>
+      <c r="C94" s="19"/>
       <c r="D94" s="15" t="s">
         <v>1934</v>
       </c>
@@ -10320,7 +10296,7 @@
         <v>790</v>
       </c>
       <c r="B95" s="10"/>
-      <c r="C95" s="24"/>
+      <c r="C95" s="22"/>
       <c r="D95" s="15" t="s">
         <v>1935</v>
       </c>
@@ -10337,7 +10313,7 @@
         <v>791</v>
       </c>
       <c r="B96" s="10"/>
-      <c r="C96" s="24"/>
+      <c r="C96" s="22"/>
       <c r="D96" s="15" t="s">
         <v>1936</v>
       </c>
@@ -10354,7 +10330,7 @@
         <v>792</v>
       </c>
       <c r="B97" s="10"/>
-      <c r="C97" s="24"/>
+      <c r="C97" s="22"/>
       <c r="D97" s="15" t="s">
         <v>1937</v>
       </c>
@@ -10371,7 +10347,7 @@
         <v>793</v>
       </c>
       <c r="B98" s="10"/>
-      <c r="C98" s="24"/>
+      <c r="C98" s="22"/>
       <c r="D98" s="15" t="s">
         <v>1938</v>
       </c>
@@ -10388,7 +10364,7 @@
         <v>794</v>
       </c>
       <c r="B99" s="10"/>
-      <c r="C99" s="24"/>
+      <c r="C99" s="22"/>
       <c r="D99" s="15" t="s">
         <v>1939</v>
       </c>
@@ -10405,7 +10381,7 @@
         <v>19</v>
       </c>
       <c r="B100" s="10"/>
-      <c r="C100" s="24"/>
+      <c r="C100" s="22"/>
       <c r="D100" s="15" t="s">
         <v>1940</v>
       </c>
@@ -10422,7 +10398,7 @@
         <v>18</v>
       </c>
       <c r="B101" s="10"/>
-      <c r="C101" s="24"/>
+      <c r="C101" s="22"/>
       <c r="D101" s="15" t="s">
         <v>1941</v>
       </c>
@@ -10469,7 +10445,7 @@
         <v>1943</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>881</v>
+        <v>538</v>
       </c>
       <c r="F103" s="16" t="s">
         <v>1508</v>
@@ -10814,7 +10790,7 @@
         <v>1125</v>
       </c>
       <c r="B119" s="15"/>
-      <c r="C119" s="24"/>
+      <c r="C119" s="22"/>
       <c r="D119" s="15" t="s">
         <v>1791</v>
       </c>
@@ -10831,7 +10807,7 @@
         <v>276</v>
       </c>
       <c r="B120" s="15"/>
-      <c r="C120" s="24"/>
+      <c r="C120" s="22"/>
       <c r="D120" s="15" t="s">
         <v>277</v>
       </c>
@@ -11086,7 +11062,7 @@
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="15"/>
       <c r="B201" s="15"/>
-      <c r="C201" s="21"/>
+      <c r="C201" s="19"/>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
       <c r="F201" s="16"/>
@@ -11095,7 +11071,7 @@
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="15"/>
       <c r="B202" s="10"/>
-      <c r="C202" s="24"/>
+      <c r="C202" s="22"/>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
       <c r="F202" s="16"/>
@@ -11104,7 +11080,7 @@
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="15"/>
       <c r="B203" s="10"/>
-      <c r="C203" s="24"/>
+      <c r="C203" s="22"/>
       <c r="D203" s="15"/>
       <c r="E203" s="10"/>
       <c r="F203" s="16"/>
@@ -11113,7 +11089,7 @@
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="15"/>
       <c r="B204" s="10"/>
-      <c r="C204" s="24"/>
+      <c r="C204" s="22"/>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
       <c r="F204" s="16"/>
@@ -11122,7 +11098,7 @@
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="15"/>
       <c r="B205" s="10"/>
-      <c r="C205" s="24"/>
+      <c r="C205" s="22"/>
       <c r="D205" s="15"/>
       <c r="E205" s="10"/>
       <c r="F205" s="16"/>
@@ -11131,7 +11107,7 @@
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="15"/>
       <c r="B206" s="15"/>
-      <c r="C206" s="21"/>
+      <c r="C206" s="19"/>
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
       <c r="F206" s="16"/>
@@ -11140,7 +11116,7 @@
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="15"/>
       <c r="B207" s="15"/>
-      <c r="C207" s="21"/>
+      <c r="C207" s="19"/>
       <c r="D207" s="15"/>
       <c r="E207" s="10"/>
       <c r="F207" s="16"/>
@@ -11149,7 +11125,7 @@
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="15"/>
       <c r="B208" s="10"/>
-      <c r="C208" s="24"/>
+      <c r="C208" s="22"/>
       <c r="D208" s="15"/>
       <c r="E208" s="15"/>
       <c r="F208" s="16"/>
@@ -11158,7 +11134,7 @@
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="15"/>
       <c r="B209" s="10"/>
-      <c r="C209" s="24"/>
+      <c r="C209" s="22"/>
       <c r="D209" s="15"/>
       <c r="E209" s="10"/>
       <c r="F209" s="16"/>
@@ -11167,7 +11143,7 @@
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="15"/>
       <c r="B210" s="15"/>
-      <c r="C210" s="21"/>
+      <c r="C210" s="19"/>
       <c r="D210" s="15"/>
       <c r="E210" s="15"/>
       <c r="F210" s="16"/>
@@ -11176,7 +11152,7 @@
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="15"/>
       <c r="B211" s="15"/>
-      <c r="C211" s="21"/>
+      <c r="C211" s="19"/>
       <c r="D211" s="15"/>
       <c r="E211" s="10"/>
       <c r="F211" s="16"/>
@@ -11185,7 +11161,7 @@
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="15"/>
       <c r="B212" s="10"/>
-      <c r="C212" s="24"/>
+      <c r="C212" s="22"/>
       <c r="D212" s="15"/>
       <c r="E212" s="15"/>
       <c r="F212" s="16"/>
@@ -11194,7 +11170,7 @@
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="15"/>
       <c r="B213" s="10"/>
-      <c r="C213" s="24"/>
+      <c r="C213" s="22"/>
       <c r="D213" s="15"/>
       <c r="E213" s="10"/>
       <c r="F213" s="16"/>
@@ -11203,7 +11179,7 @@
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="15"/>
       <c r="B214" s="10"/>
-      <c r="C214" s="24"/>
+      <c r="C214" s="22"/>
       <c r="D214" s="15"/>
       <c r="E214" s="15"/>
       <c r="F214" s="16"/>
@@ -11212,7 +11188,7 @@
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="15"/>
       <c r="B215" s="10"/>
-      <c r="C215" s="24"/>
+      <c r="C215" s="22"/>
       <c r="D215" s="15"/>
       <c r="E215" s="10"/>
       <c r="F215" s="16"/>
@@ -11221,7 +11197,7 @@
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="15"/>
       <c r="B216" s="10"/>
-      <c r="C216" s="24"/>
+      <c r="C216" s="22"/>
       <c r="D216" s="15"/>
       <c r="E216" s="10"/>
       <c r="F216" s="16"/>
@@ -11230,7 +11206,7 @@
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="15"/>
       <c r="B217" s="10"/>
-      <c r="C217" s="24"/>
+      <c r="C217" s="22"/>
       <c r="D217" s="15"/>
       <c r="E217" s="10"/>
       <c r="F217" s="16"/>
@@ -11239,7 +11215,7 @@
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="15"/>
       <c r="B218" s="10"/>
-      <c r="C218" s="24"/>
+      <c r="C218" s="22"/>
       <c r="D218" s="15"/>
       <c r="E218" s="15"/>
       <c r="F218" s="16"/>
@@ -11248,7 +11224,7 @@
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="15"/>
       <c r="B219" s="10"/>
-      <c r="C219" s="24"/>
+      <c r="C219" s="22"/>
       <c r="D219" s="15"/>
       <c r="E219" s="15"/>
       <c r="F219" s="16"/>
@@ -11257,7 +11233,7 @@
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="15"/>
       <c r="B220" s="10"/>
-      <c r="C220" s="24"/>
+      <c r="C220" s="22"/>
       <c r="D220" s="15"/>
       <c r="E220" s="15"/>
       <c r="F220" s="16"/>
@@ -11266,7 +11242,7 @@
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="15"/>
       <c r="B221" s="10"/>
-      <c r="C221" s="24"/>
+      <c r="C221" s="22"/>
       <c r="D221" s="15"/>
       <c r="E221" s="15"/>
       <c r="F221" s="16"/>
@@ -11275,7 +11251,7 @@
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="15"/>
       <c r="B222" s="10"/>
-      <c r="C222" s="24"/>
+      <c r="C222" s="22"/>
       <c r="D222" s="15"/>
       <c r="E222" s="15"/>
       <c r="F222" s="16"/>
@@ -11284,14 +11260,14 @@
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="15"/>
       <c r="B223" s="10"/>
-      <c r="C223" s="24"/>
+      <c r="C223" s="22"/>
       <c r="D223" s="15"/>
       <c r="E223" s="15"/>
       <c r="F223" s="16"/>
       <c r="G223" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="7.874015748031496E-2" right="0.70866141732283472" top="7.874015748031496E-2" bottom="7.874015748031496E-2" header="0.31496062992125984" footer="7.874015748031496E-2"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
@@ -11300,13 +11276,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB5FA07-9B9D-4A17-BC77-5F8D8DD42BC3}">
-  <dimension ref="A1:M302"/>
+  <dimension ref="A1:G302"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="G297" sqref="G297"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="5" customWidth="1"/>
@@ -11315,12 +11291,10 @@
     <col min="5" max="5" width="26.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.28515625" style="5" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="5"/>
-    <col min="10" max="19" width="30.140625" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="5"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>189</v>
       </c>
@@ -11343,7 +11317,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -11355,7 +11329,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -11369,7 +11343,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -11381,7 +11355,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -11393,7 +11367,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -11405,7 +11379,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -11419,7 +11393,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -11433,7 +11407,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -11445,7 +11419,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>1122</v>
       </c>
@@ -11457,7 +11431,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
@@ -11471,7 +11445,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -11485,7 +11459,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -11499,7 +11473,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -11513,7 +11487,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -11527,7 +11501,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -11541,7 +11515,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -11555,7 +11529,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -11569,7 +11543,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -11583,7 +11557,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
@@ -11597,7 +11571,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>1123</v>
       </c>
@@ -11611,7 +11585,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>1124</v>
       </c>
@@ -11625,7 +11599,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
@@ -11639,7 +11613,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
@@ -11655,7 +11629,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
@@ -11672,7 +11646,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
@@ -11689,7 +11663,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>280</v>
       </c>
@@ -11710,7 +11684,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>281</v>
       </c>
@@ -11779,7 +11753,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>284</v>
       </c>
@@ -11802,7 +11776,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>285</v>
       </c>
@@ -11825,7 +11799,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>286</v>
       </c>
@@ -11848,7 +11822,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>287</v>
       </c>
@@ -11871,7 +11845,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>288</v>
       </c>
@@ -11894,7 +11868,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>289</v>
       </c>
@@ -11917,7 +11891,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>290</v>
       </c>
@@ -11940,7 +11914,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>291</v>
       </c>
@@ -11963,7 +11937,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>292</v>
       </c>
@@ -11986,7 +11960,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>293</v>
       </c>
@@ -12009,7 +11983,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>294</v>
       </c>
@@ -12032,7 +12006,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>295</v>
       </c>
@@ -12055,7 +12029,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>296</v>
       </c>
@@ -12078,7 +12052,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>297</v>
       </c>
@@ -12101,7 +12075,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>298</v>
       </c>
@@ -12124,7 +12098,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>299</v>
       </c>
@@ -12147,7 +12121,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>300</v>
       </c>
@@ -12170,7 +12144,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>301</v>
       </c>
@@ -12193,7 +12167,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>302</v>
       </c>
@@ -12216,7 +12190,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>303</v>
       </c>
@@ -12239,7 +12213,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>304</v>
       </c>
@@ -12262,7 +12236,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>305</v>
       </c>
@@ -12285,7 +12259,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>306</v>
       </c>
@@ -12308,7 +12282,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>307</v>
       </c>
@@ -12331,7 +12305,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>308</v>
       </c>
@@ -12354,7 +12328,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>309</v>
       </c>
@@ -12377,7 +12351,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>310</v>
       </c>
@@ -12400,7 +12374,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>311</v>
       </c>
@@ -12423,7 +12397,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>1149</v>
       </c>
@@ -12446,7 +12420,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>1150</v>
       </c>
@@ -12469,7 +12443,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>1151</v>
       </c>
@@ -12492,7 +12466,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>1152</v>
       </c>
@@ -12515,7 +12489,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>1153</v>
       </c>
@@ -12538,7 +12512,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>1154</v>
       </c>
@@ -12561,7 +12535,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>312</v>
       </c>
@@ -12574,7 +12548,7 @@
       <c r="D65" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="11" t="s">
         <v>574</v>
       </c>
       <c r="F65" s="7">
@@ -12583,9 +12557,8 @@
       <c r="G65" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="K65" s="10"/>
-    </row>
-    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>313</v>
       </c>
@@ -12598,7 +12571,7 @@
       <c r="D66" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="E66" s="18" t="s">
+      <c r="E66" s="11" t="s">
         <v>574</v>
       </c>
       <c r="F66" s="7">
@@ -12607,9 +12580,8 @@
       <c r="G66" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="K66" s="10"/>
-    </row>
-    <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>314</v>
       </c>
@@ -12622,7 +12594,7 @@
       <c r="D67" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="E67" s="11" t="s">
         <v>574</v>
       </c>
       <c r="F67" s="7">
@@ -12631,9 +12603,8 @@
       <c r="G67" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="K67" s="10"/>
-    </row>
-    <row r="68" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>315</v>
       </c>
@@ -12646,7 +12617,7 @@
       <c r="D68" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="11" t="s">
         <v>574</v>
       </c>
       <c r="F68" s="7">
@@ -12655,9 +12626,8 @@
       <c r="G68" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="K68" s="10"/>
-    </row>
-    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>316</v>
       </c>
@@ -12670,7 +12640,7 @@
       <c r="D69" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="11" t="s">
         <v>574</v>
       </c>
       <c r="F69" s="7">
@@ -12679,9 +12649,8 @@
       <c r="G69" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="K69" s="10"/>
-    </row>
-    <row r="70" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>317</v>
       </c>
@@ -12704,7 +12673,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>318</v>
       </c>
@@ -12727,7 +12696,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>319</v>
       </c>
@@ -12749,10 +12718,8 @@
       <c r="G72" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J72" s="10"/>
-      <c r="K72" s="8"/>
-    </row>
-    <row r="73" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>320</v>
       </c>
@@ -12774,10 +12741,8 @@
       <c r="G73" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J73" s="10"/>
-      <c r="K73" s="8"/>
-    </row>
-    <row r="74" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>321</v>
       </c>
@@ -12799,10 +12764,8 @@
       <c r="G74" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J74" s="10"/>
-      <c r="K74" s="8"/>
-    </row>
-    <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>322</v>
       </c>
@@ -12815,7 +12778,7 @@
       <c r="D75" s="15" t="s">
         <v>1346</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E75" s="28" t="s">
         <v>574</v>
       </c>
       <c r="F75" s="7">
@@ -12825,7 +12788,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>323</v>
       </c>
@@ -12846,7 +12809,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>324</v>
       </c>
@@ -12867,7 +12830,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>325</v>
       </c>
@@ -12888,7 +12851,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>326</v>
       </c>
@@ -12911,7 +12874,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>327</v>
       </c>
@@ -12934,7 +12897,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>328</v>
       </c>
@@ -12957,7 +12920,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>329</v>
       </c>
@@ -12980,7 +12943,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>330</v>
       </c>
@@ -13003,7 +12966,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>331</v>
       </c>
@@ -13026,7 +12989,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>332</v>
       </c>
@@ -13049,7 +13012,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>333</v>
       </c>
@@ -13072,7 +13035,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>334</v>
       </c>
@@ -13095,7 +13058,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>1155</v>
       </c>
@@ -13108,8 +13071,8 @@
       <c r="D88" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="E88" s="19" t="s">
-        <v>674</v>
+      <c r="E88" s="10" t="s">
+        <v>536</v>
       </c>
       <c r="F88" s="7">
         <v>9</v>
@@ -13117,9 +13080,8 @@
       <c r="G88" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J88" s="8"/>
-    </row>
-    <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>1156</v>
       </c>
@@ -13132,8 +13094,8 @@
       <c r="D89" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="E89" s="19" t="s">
-        <v>674</v>
+      <c r="E89" s="10" t="s">
+        <v>536</v>
       </c>
       <c r="F89" s="7">
         <v>9</v>
@@ -13141,9 +13103,8 @@
       <c r="G89" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J89" s="8"/>
-    </row>
-    <row r="90" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>1157</v>
       </c>
@@ -13156,8 +13117,8 @@
       <c r="D90" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="E90" s="19" t="s">
-        <v>674</v>
+      <c r="E90" s="10" t="s">
+        <v>536</v>
       </c>
       <c r="F90" s="7">
         <v>9</v>
@@ -13166,7 +13127,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>1158</v>
       </c>
@@ -13179,8 +13140,8 @@
       <c r="D91" s="15" t="s">
         <v>1356</v>
       </c>
-      <c r="E91" s="19" t="s">
-        <v>674</v>
+      <c r="E91" s="13" t="s">
+        <v>536</v>
       </c>
       <c r="F91" s="7">
         <v>9</v>
@@ -13189,7 +13150,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>1159</v>
       </c>
@@ -13202,8 +13163,8 @@
       <c r="D92" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="E92" s="19" t="s">
-        <v>674</v>
+      <c r="E92" s="10" t="s">
+        <v>536</v>
       </c>
       <c r="F92" s="7">
         <v>9</v>
@@ -13212,7 +13173,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>1160</v>
       </c>
@@ -13225,8 +13186,8 @@
       <c r="D93" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="E93" s="19" t="s">
-        <v>674</v>
+      <c r="E93" s="10" t="s">
+        <v>536</v>
       </c>
       <c r="F93" s="7">
         <v>9</v>
@@ -13235,7 +13196,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>1161</v>
       </c>
@@ -13258,7 +13219,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>1162</v>
       </c>
@@ -13281,7 +13242,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>1163</v>
       </c>
@@ -13302,7 +13263,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>1164</v>
       </c>
@@ -13323,7 +13284,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>335</v>
       </c>
@@ -13346,7 +13307,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>336</v>
       </c>
@@ -13368,9 +13329,8 @@
       <c r="G99" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J99" s="9"/>
-    </row>
-    <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>337</v>
       </c>
@@ -13393,7 +13353,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>338</v>
       </c>
@@ -13416,7 +13376,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>339</v>
       </c>
@@ -13438,9 +13398,8 @@
       <c r="G102" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J102" s="9"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>340</v>
       </c>
@@ -13462,9 +13421,8 @@
       <c r="G103" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J103" s="8"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>341</v>
       </c>
@@ -13486,9 +13444,8 @@
       <c r="G104" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J104" s="9"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>342</v>
       </c>
@@ -13510,9 +13467,8 @@
       <c r="G105" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J105" s="8"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>343</v>
       </c>
@@ -13535,7 +13491,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>344</v>
       </c>
@@ -13557,9 +13513,8 @@
       <c r="G107" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J107" s="8"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>345</v>
       </c>
@@ -13582,7 +13537,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>346</v>
       </c>
@@ -13605,7 +13560,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>347</v>
       </c>
@@ -13628,7 +13583,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>1165</v>
       </c>
@@ -13651,7 +13606,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>1166</v>
       </c>
@@ -13674,7 +13629,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>1167</v>
       </c>
@@ -13697,7 +13652,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>1168</v>
       </c>
@@ -13720,7 +13675,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>1169</v>
       </c>
@@ -13743,7 +13698,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>1170</v>
       </c>
@@ -13766,7 +13721,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>1171</v>
       </c>
@@ -13789,7 +13744,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>348</v>
       </c>
@@ -13812,7 +13767,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>349</v>
       </c>
@@ -13835,7 +13790,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>1172</v>
       </c>
@@ -13858,7 +13813,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>1173</v>
       </c>
@@ -13881,7 +13836,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>1174</v>
       </c>
@@ -13904,7 +13859,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>1175</v>
       </c>
@@ -13926,9 +13881,8 @@
       <c r="G123" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J123" s="8"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>1176</v>
       </c>
@@ -13951,7 +13905,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>1177</v>
       </c>
@@ -13974,7 +13928,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>1178</v>
       </c>
@@ -13997,7 +13951,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>1179</v>
       </c>
@@ -14020,7 +13974,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>1180</v>
       </c>
@@ -14403,7 +14357,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>1189</v>
       </c>
@@ -14426,7 +14380,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>1190</v>
       </c>
@@ -14449,7 +14403,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>1191</v>
       </c>
@@ -14472,7 +14426,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>1192</v>
       </c>
@@ -14495,7 +14449,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>1193</v>
       </c>
@@ -14518,7 +14472,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>1194</v>
       </c>
@@ -14541,7 +14495,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>1195</v>
       </c>
@@ -14564,7 +14518,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>1196</v>
       </c>
@@ -14587,7 +14541,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>1197</v>
       </c>
@@ -14610,7 +14564,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>1198</v>
       </c>
@@ -14633,7 +14587,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>1199</v>
       </c>
@@ -14655,10 +14609,8 @@
       <c r="G155" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J155" s="10"/>
-      <c r="K155" s="9"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>1200</v>
       </c>
@@ -14681,7 +14633,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>1201</v>
       </c>
@@ -14704,7 +14656,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>1202</v>
       </c>
@@ -14727,7 +14679,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>1203</v>
       </c>
@@ -14750,7 +14702,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>1204</v>
       </c>
@@ -15139,7 +15091,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>1220</v>
       </c>
@@ -15160,7 +15112,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>359</v>
       </c>
@@ -15182,12 +15134,8 @@
       <c r="G178" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J178" s="15"/>
-      <c r="K178" s="9"/>
-      <c r="L178" s="15"/>
-      <c r="M178" s="10"/>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>360</v>
       </c>
@@ -15209,12 +15157,8 @@
       <c r="G179" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J179" s="15"/>
-      <c r="K179" s="9"/>
-      <c r="L179" s="15"/>
-      <c r="M179" s="10"/>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>361</v>
       </c>
@@ -15236,12 +15180,8 @@
       <c r="G180" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J180" s="15"/>
-      <c r="K180" s="8"/>
-      <c r="L180" s="15"/>
-      <c r="M180" s="10"/>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>362</v>
       </c>
@@ -15263,12 +15203,8 @@
       <c r="G181" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J181" s="15"/>
-      <c r="K181" s="9"/>
-      <c r="L181" s="15"/>
-      <c r="M181" s="10"/>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>363</v>
       </c>
@@ -15290,12 +15226,8 @@
       <c r="G182" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J182" s="15"/>
-      <c r="K182" s="9"/>
-      <c r="L182" s="15"/>
-      <c r="M182" s="10"/>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>364</v>
       </c>
@@ -15317,9 +15249,8 @@
       <c r="G183" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J183" s="8"/>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>365</v>
       </c>
@@ -15342,7 +15273,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>366</v>
       </c>
@@ -15365,7 +15296,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>367</v>
       </c>
@@ -15388,7 +15319,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>368</v>
       </c>
@@ -15410,9 +15341,8 @@
       <c r="G187" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J187" s="8"/>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>369</v>
       </c>
@@ -15434,9 +15364,8 @@
       <c r="G188" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J188" s="8"/>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>370</v>
       </c>
@@ -15458,9 +15387,8 @@
       <c r="G189" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J189" s="8"/>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>371</v>
       </c>
@@ -15483,7 +15411,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>372</v>
       </c>
@@ -15506,7 +15434,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>373</v>
       </c>
@@ -15529,7 +15457,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>374</v>
       </c>
@@ -15551,10 +15479,8 @@
       <c r="G193" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J193" s="10"/>
-      <c r="K193" s="9"/>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>1221</v>
       </c>
@@ -15576,10 +15502,8 @@
       <c r="G194" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J194" s="10"/>
-      <c r="K194" s="9"/>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>1222</v>
       </c>
@@ -15601,10 +15525,8 @@
       <c r="G195" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J195" s="10"/>
-      <c r="K195" s="9"/>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>1223</v>
       </c>
@@ -15626,10 +15548,8 @@
       <c r="G196" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J196" s="10"/>
-      <c r="K196" s="9"/>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>1224</v>
       </c>
@@ -15652,7 +15572,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>1225</v>
       </c>
@@ -15675,7 +15595,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>1226</v>
       </c>
@@ -15698,7 +15618,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>375</v>
       </c>
@@ -15721,7 +15641,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>376</v>
       </c>
@@ -15744,7 +15664,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>377</v>
       </c>
@@ -15767,7 +15687,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>378</v>
       </c>
@@ -15790,7 +15710,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>1227</v>
       </c>
@@ -15812,9 +15732,8 @@
       <c r="G204" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J204" s="8"/>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>1228</v>
       </c>
@@ -15837,7 +15756,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>1229</v>
       </c>
@@ -15859,9 +15778,8 @@
       <c r="G206" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J206" s="8"/>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>1230</v>
       </c>
@@ -15884,7 +15802,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>1231</v>
       </c>
@@ -15907,7 +15825,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>1232</v>
       </c>
@@ -15929,9 +15847,8 @@
       <c r="G209" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J209" s="8"/>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>1233</v>
       </c>
@@ -15954,7 +15871,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>1234</v>
       </c>
@@ -15977,7 +15894,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>1235</v>
       </c>
@@ -16000,7 +15917,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>1236</v>
       </c>
@@ -16023,7 +15940,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>1237</v>
       </c>
@@ -16046,7 +15963,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>1238</v>
       </c>
@@ -16069,7 +15986,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>1239</v>
       </c>
@@ -16092,7 +16009,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>1240</v>
       </c>
@@ -16115,7 +16032,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>379</v>
       </c>
@@ -16138,7 +16055,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>380</v>
       </c>
@@ -16161,7 +16078,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>381</v>
       </c>
@@ -16184,7 +16101,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>1241</v>
       </c>
@@ -16207,7 +16124,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>1242</v>
       </c>
@@ -16230,7 +16147,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>1243</v>
       </c>
@@ -16253,7 +16170,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>382</v>
       </c>
@@ -16273,10 +16190,8 @@
       <c r="G224" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J224" s="10"/>
-      <c r="K224" s="8"/>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>383</v>
       </c>
@@ -16296,10 +16211,8 @@
       <c r="G225" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J225" s="10"/>
-      <c r="K225" s="8"/>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>384</v>
       </c>
@@ -16319,10 +16232,8 @@
       <c r="G226" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J226" s="10"/>
-      <c r="K226" s="8"/>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>1244</v>
       </c>
@@ -16342,10 +16253,8 @@
       <c r="G227" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J227" s="10"/>
-      <c r="K227" s="8"/>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>385</v>
       </c>
@@ -16368,7 +16277,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>386</v>
       </c>
@@ -16391,7 +16300,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>1245</v>
       </c>
@@ -16414,7 +16323,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>1246</v>
       </c>
@@ -16437,7 +16346,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>1247</v>
       </c>
@@ -16460,7 +16369,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>1248</v>
       </c>
@@ -16483,7 +16392,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>1249</v>
       </c>
@@ -16506,7 +16415,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>1250</v>
       </c>
@@ -16529,7 +16438,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>1251</v>
       </c>
@@ -16552,7 +16461,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>1252</v>
       </c>
@@ -16575,7 +16484,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>1253</v>
       </c>
@@ -16598,7 +16507,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>1254</v>
       </c>
@@ -16621,7 +16530,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>1255</v>
       </c>
@@ -16644,7 +16553,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>1256</v>
       </c>
@@ -16666,9 +16575,8 @@
       <c r="G241" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J241" s="9"/>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>1257</v>
       </c>
@@ -16690,9 +16598,8 @@
       <c r="G242" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J242" s="8"/>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>1258</v>
       </c>
@@ -16715,7 +16622,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>1259</v>
       </c>
@@ -16738,7 +16645,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>1260</v>
       </c>
@@ -16760,9 +16667,8 @@
       <c r="G245" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J245" s="8"/>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>1261</v>
       </c>
@@ -16785,7 +16691,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>1262</v>
       </c>
@@ -16808,7 +16714,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>1263</v>
       </c>
@@ -16831,7 +16737,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>1264</v>
       </c>
@@ -16854,7 +16760,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>1265</v>
       </c>
@@ -16877,7 +16783,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>1266</v>
       </c>
@@ -16900,7 +16806,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>1267</v>
       </c>
@@ -16923,7 +16829,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>1268</v>
       </c>
@@ -16945,9 +16851,8 @@
       <c r="G253" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J253" s="8"/>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>1269</v>
       </c>
@@ -16970,7 +16875,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>1270</v>
       </c>
@@ -16993,7 +16898,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>1271</v>
       </c>
@@ -17016,7 +16921,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>1272</v>
       </c>
@@ -17039,7 +16944,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>1273</v>
       </c>
@@ -17062,7 +16967,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>1274</v>
       </c>
@@ -17085,7 +16990,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>1275</v>
       </c>
@@ -17108,7 +17013,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>1276</v>
       </c>
@@ -17131,7 +17036,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>1277</v>
       </c>
@@ -17144,7 +17049,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>1278</v>
       </c>
@@ -17165,7 +17070,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>1279</v>
       </c>
@@ -17188,7 +17093,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>387</v>
       </c>
@@ -17209,7 +17114,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>388</v>
       </c>
@@ -17232,7 +17137,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>389</v>
       </c>
@@ -17253,7 +17158,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>390</v>
       </c>
@@ -17275,9 +17180,8 @@
       <c r="G268" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J268" s="15"/>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>1280</v>
       </c>
@@ -17297,9 +17201,8 @@
       <c r="G269" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J269" s="15"/>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>1281</v>
       </c>
@@ -17321,9 +17224,8 @@
       <c r="G270" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J270" s="10"/>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>1282</v>
       </c>
@@ -17343,9 +17245,8 @@
       <c r="G271" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J271" s="10"/>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>1283</v>
       </c>
@@ -17367,10 +17268,8 @@
       <c r="G272" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J272" s="15"/>
-      <c r="L272" s="9"/>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>1284</v>
       </c>
@@ -17390,10 +17289,8 @@
       <c r="G273" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J273" s="15"/>
-      <c r="L273" s="9"/>
-    </row>
-    <row r="274" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>1285</v>
       </c>
@@ -17415,10 +17312,8 @@
       <c r="G274" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J274" s="1"/>
-      <c r="L274" s="4"/>
-    </row>
-    <row r="275" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>1286</v>
       </c>
@@ -17438,10 +17333,8 @@
       <c r="G275" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J275" s="1"/>
-      <c r="L275" s="4"/>
-    </row>
-    <row r="276" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>1287</v>
       </c>
@@ -17464,7 +17357,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>1288</v>
       </c>
@@ -17485,7 +17378,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>1289</v>
       </c>
@@ -17508,7 +17401,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="279" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>391</v>
       </c>
@@ -17529,7 +17422,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="280" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>392</v>
       </c>
@@ -17552,7 +17445,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="281" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>393</v>
       </c>
@@ -17575,7 +17468,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="282" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
         <v>394</v>
       </c>
@@ -17598,7 +17491,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="283" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>1290</v>
       </c>
@@ -17621,7 +17514,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="284" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>1291</v>
       </c>
@@ -17641,7 +17534,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="285" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
         <v>1292</v>
       </c>
@@ -17661,7 +17554,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="286" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
         <v>1293</v>
       </c>
@@ -17681,7 +17574,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="287" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>1294</v>
       </c>
@@ -17701,7 +17594,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="288" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>1295</v>
       </c>
@@ -17721,7 +17614,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>1296</v>
       </c>
@@ -17741,7 +17634,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>1297</v>
       </c>
@@ -17761,7 +17654,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>1298</v>
       </c>
@@ -17781,7 +17674,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
         <v>1299</v>
       </c>
@@ -17801,7 +17694,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
         <v>1300</v>
       </c>
@@ -17821,7 +17714,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
         <v>1301</v>
       </c>
@@ -17841,7 +17734,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
         <v>1302</v>
       </c>
@@ -17861,7 +17754,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>1303</v>
       </c>
@@ -17881,7 +17774,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>1304</v>
       </c>
@@ -17901,16 +17794,16 @@
         <v>188</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G298" s="1"/>
     </row>
-    <row r="300" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G300" s="1"/>
     </row>
-    <row r="301" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G301" s="1"/>
     </row>
-    <row r="302" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G302" s="1"/>
     </row>
   </sheetData>
@@ -17922,37 +17815,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA364EA-0246-4213-9E17-30402EABB826}">
-  <dimension ref="A1:L223"/>
+  <dimension ref="A1:G223"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="G131" sqref="G131"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="5"/>
-    <col min="9" max="9" width="49" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="5"/>
-    <col min="12" max="12" width="26.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>191</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -17961,25 +17849,21 @@
       <c r="E1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="25" t="s">
         <v>194</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="27"/>
-    </row>
-    <row r="2" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="15" t="s">
         <v>1305</v>
       </c>
@@ -17987,19 +17871,15 @@
         <v>278</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-    </row>
-    <row r="3" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="15" t="s">
         <v>1307</v>
       </c>
@@ -18007,19 +17887,15 @@
         <v>278</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-    </row>
-    <row r="4" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>1617</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>1795</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>1797</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -18032,19 +17908,15 @@
       <c r="G4" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-    </row>
-    <row r="5" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1618</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>1796</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="20" t="s">
         <v>1798</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -18058,21 +17930,21 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>947</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>1117</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>1001</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>574</v>
+      <c r="E6" s="27" t="s">
+        <v>536</v>
       </c>
       <c r="F6" s="16">
         <v>9</v>
@@ -18081,14 +17953,14 @@
         <v>537</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>948</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C7" s="23" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>1118</v>
       </c>
       <c r="D7" s="15" t="s">
@@ -18104,14 +17976,14 @@
         <v>537</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>949</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="21" t="s">
         <v>1119</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -18126,16 +17998,15 @@
       <c r="G8" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>950</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>1120</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -18150,41 +18021,38 @@
       <c r="G9" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="8"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>951</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>1121</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>1005</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>653</v>
+      </c>
       <c r="F10" s="16">
         <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>1619</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>1799</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>1801</v>
       </c>
       <c r="D11" s="15" t="s">
@@ -18199,18 +18067,15 @@
       <c r="G11" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="8"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>952</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>1047</v>
       </c>
       <c r="D12" s="15" t="s">
@@ -18223,18 +18088,15 @@
       <c r="G12" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="8"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>1620</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>1046</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="20" t="s">
         <v>1793</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -18247,18 +18109,15 @@
       <c r="G13" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="8"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>1621</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>1046</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="20" t="s">
         <v>1794</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -18271,18 +18130,15 @@
       <c r="G14" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="8"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>1622</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>1046</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="22" t="s">
         <v>1048</v>
       </c>
       <c r="D15" s="15" t="s">
@@ -18297,16 +18153,15 @@
       <c r="G15" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>1623</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="21" t="s">
         <v>1051</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -18319,16 +18174,15 @@
       <c r="G16" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L16" s="10"/>
-    </row>
-    <row r="17" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>1624</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1873</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="21" t="s">
         <v>1052</v>
       </c>
       <c r="D17" s="15" t="s">
@@ -18344,14 +18198,14 @@
         <v>537</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>1625</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>1054</v>
       </c>
       <c r="D18" s="15" t="s">
@@ -18366,18 +18220,15 @@
       <c r="G18" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="8"/>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>953</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>1802</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="22" t="s">
         <v>1804</v>
       </c>
       <c r="D19" s="15" t="s">
@@ -18392,18 +18243,15 @@
       <c r="G19" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="8"/>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>954</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>1803</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="19" t="s">
         <v>1805</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -18418,25 +18266,22 @@
       <c r="G20" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="9"/>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>1626</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="21" t="s">
         <v>1058</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>1009</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F21" s="16">
         <v>9</v>
@@ -18444,25 +18289,22 @@
       <c r="G21" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="8"/>
-      <c r="L21" s="10"/>
-    </row>
-    <row r="22" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>1627</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="21" t="s">
         <v>1059</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>1010</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F22" s="16">
         <v>9</v>
@@ -18470,25 +18312,22 @@
       <c r="G22" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="8"/>
-      <c r="L22" s="10"/>
-    </row>
-    <row r="23" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>1628</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="21" t="s">
         <v>1060</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>1011</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F23" s="16">
         <v>9</v>
@@ -18496,24 +18335,22 @@
       <c r="G23" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>1629</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="21" t="s">
         <v>1061</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>1012</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F24" s="16">
         <v>9</v>
@@ -18521,25 +18358,22 @@
       <c r="G24" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="8"/>
-      <c r="L24" s="10"/>
-    </row>
-    <row r="25" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>1630</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="21" t="s">
         <v>1062</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>1013</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F25" s="16">
         <v>9</v>
@@ -18548,21 +18382,21 @@
         <v>537</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>1631</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="21" t="s">
         <v>1063</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>1014</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F26" s="16">
         <v>9</v>
@@ -18570,25 +18404,22 @@
       <c r="G26" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="8"/>
-      <c r="L26" s="10"/>
-    </row>
-    <row r="27" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>1632</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="21" t="s">
         <v>1064</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>1705</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F27" s="16">
         <v>9</v>
@@ -18596,25 +18427,22 @@
       <c r="G27" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="8"/>
-      <c r="L27" s="10"/>
-    </row>
-    <row r="28" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>1633</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>1806</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="23" t="s">
         <v>1809</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>1706</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F28" s="16">
         <v>9</v>
@@ -18622,25 +18450,22 @@
       <c r="G28" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="8"/>
-      <c r="L28" s="10"/>
-    </row>
-    <row r="29" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>1634</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>1806</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="23" t="s">
         <v>1810</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>1707</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F29" s="16">
         <v>9</v>
@@ -18648,25 +18473,22 @@
       <c r="G29" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="8"/>
-      <c r="L29" s="10"/>
-    </row>
-    <row r="30" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>1635</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>1806</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="20" t="s">
         <v>1811</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>1708</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F30" s="16">
         <v>9</v>
@@ -18675,21 +18497,21 @@
         <v>537</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>1636</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>1806</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="20" t="s">
         <v>1812</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>1709</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F31" s="16">
         <v>9</v>
@@ -18698,21 +18520,21 @@
         <v>537</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>1637</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="21" t="s">
         <v>1065</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>1710</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F32" s="16">
         <v>9</v>
@@ -18721,21 +18543,21 @@
         <v>537</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>1638</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="21" t="s">
         <v>1066</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>1711</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F33" s="16">
         <v>9</v>
@@ -18743,23 +18565,22 @@
       <c r="G33" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>1639</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="21" t="s">
         <v>1067</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>1712</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F34" s="16">
         <v>9</v>
@@ -18767,23 +18588,22 @@
       <c r="G34" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>1640</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>1056</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="20" t="s">
         <v>1807</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>1713</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F35" s="16">
         <v>9</v>
@@ -18792,21 +18612,21 @@
         <v>537</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>1641</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="21" t="s">
         <v>1068</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>1714</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F36" s="16">
         <v>9</v>
@@ -18815,21 +18635,21 @@
         <v>537</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>1642</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="21" t="s">
         <v>1069</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>1715</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F37" s="16">
         <v>9</v>
@@ -18838,21 +18658,21 @@
         <v>537</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>1643</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="21" t="s">
         <v>1070</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>1015</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F38" s="16">
         <v>9</v>
@@ -18861,21 +18681,21 @@
         <v>537</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>1644</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="21" t="s">
         <v>1071</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>1716</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F39" s="16">
         <v>9</v>
@@ -18883,23 +18703,22 @@
       <c r="G39" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="L39" s="1"/>
-    </row>
-    <row r="40" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>1645</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>1057</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="20" t="s">
         <v>1808</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>1717</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F40" s="16">
         <v>9</v>
@@ -18907,23 +18726,22 @@
       <c r="G40" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="L40" s="1"/>
-    </row>
-    <row r="41" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>1646</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="21" t="s">
         <v>1072</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F41" s="16">
         <v>9</v>
@@ -18931,16 +18749,15 @@
       <c r="G41" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="L41" s="1"/>
-    </row>
-    <row r="42" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>1647</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>1813</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="20" t="s">
         <v>1814</v>
       </c>
       <c r="D42" s="15" t="s">
@@ -18955,16 +18772,15 @@
       <c r="G42" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="L42" s="1"/>
-    </row>
-    <row r="43" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>1648</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>1813</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="20" t="s">
         <v>1815</v>
       </c>
       <c r="D43" s="15" t="s">
@@ -18979,16 +18795,15 @@
       <c r="G43" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="L43" s="1"/>
-    </row>
-    <row r="44" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>1649</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>1813</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="20" t="s">
         <v>1816</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -19003,16 +18818,15 @@
       <c r="G44" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="L44" s="1"/>
-    </row>
-    <row r="45" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>1650</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>1813</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="20" t="s">
         <v>1817</v>
       </c>
       <c r="D45" s="15" t="s">
@@ -19027,16 +18841,15 @@
       <c r="G45" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="L45" s="1"/>
-    </row>
-    <row r="46" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>1651</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>1813</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="20" t="s">
         <v>1818</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -19051,16 +18864,15 @@
       <c r="G46" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>1652</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>1813</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="20" t="s">
         <v>1819</v>
       </c>
       <c r="D47" s="15" t="s">
@@ -19075,16 +18887,15 @@
       <c r="G47" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>1653</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>1813</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="20" t="s">
         <v>1820</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -19099,18 +18910,15 @@
       <c r="G48" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I48" s="10"/>
-      <c r="J48" s="8"/>
-      <c r="L48" s="10"/>
-    </row>
-    <row r="49" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>1654</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>1813</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="20" t="s">
         <v>1821</v>
       </c>
       <c r="D49" s="15" t="s">
@@ -19125,18 +18933,15 @@
       <c r="G49" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I49" s="10"/>
-      <c r="J49" s="8"/>
-      <c r="L49" s="10"/>
-    </row>
-    <row r="50" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>1655</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>1813</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="20" t="s">
         <v>1822</v>
       </c>
       <c r="D50" s="15" t="s">
@@ -19151,18 +18956,15 @@
       <c r="G50" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I50" s="10"/>
-      <c r="J50" s="8"/>
-      <c r="L50" s="10"/>
-    </row>
-    <row r="51" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>1656</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>1813</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="20" t="s">
         <v>1823</v>
       </c>
       <c r="D51" s="15" t="s">
@@ -19177,18 +18979,15 @@
       <c r="G51" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I51" s="10"/>
-      <c r="J51" s="8"/>
-      <c r="L51" s="10"/>
-    </row>
-    <row r="52" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>1657</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>1813</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="20" t="s">
         <v>1824</v>
       </c>
       <c r="D52" s="15" t="s">
@@ -19203,18 +19002,15 @@
       <c r="G52" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I52" s="10"/>
-      <c r="J52" s="8"/>
-      <c r="L52" s="10"/>
-    </row>
-    <row r="53" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>1658</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>1813</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="20" t="s">
         <v>1825</v>
       </c>
       <c r="D53" s="15" t="s">
@@ -19229,17 +19025,15 @@
       <c r="G53" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I53" s="10"/>
-      <c r="L53" s="10"/>
-    </row>
-    <row r="54" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>1659</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>1813</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="20" t="s">
         <v>1826</v>
       </c>
       <c r="D54" s="15" t="s">
@@ -19254,18 +19048,15 @@
       <c r="G54" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I54" s="10"/>
-      <c r="J54" s="8"/>
-      <c r="L54" s="10"/>
-    </row>
-    <row r="55" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>955</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>1073</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="20" t="s">
         <v>1832</v>
       </c>
       <c r="D55" s="15" t="s">
@@ -19280,11 +19071,8 @@
       <c r="G55" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I55" s="10"/>
-      <c r="J55" s="8"/>
-      <c r="L55" s="10"/>
-    </row>
-    <row r="56" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>956</v>
       </c>
@@ -19306,10 +19094,8 @@
       <c r="G56" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I56" s="10"/>
-      <c r="L56" s="10"/>
-    </row>
-    <row r="57" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>1660</v>
       </c>
@@ -19331,11 +19117,8 @@
       <c r="G57" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I57" s="10"/>
-      <c r="J57" s="8"/>
-      <c r="L57" s="10"/>
-    </row>
-    <row r="58" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>1661</v>
       </c>
@@ -19357,10 +19140,8 @@
       <c r="G58" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I58" s="10"/>
-      <c r="L58" s="10"/>
-    </row>
-    <row r="59" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>1662</v>
       </c>
@@ -19382,11 +19163,8 @@
       <c r="G59" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I59" s="10"/>
-      <c r="J59" s="8"/>
-      <c r="L59" s="10"/>
-    </row>
-    <row r="60" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>1663</v>
       </c>
@@ -19408,10 +19186,8 @@
       <c r="G60" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I60" s="10"/>
-      <c r="L60" s="10"/>
-    </row>
-    <row r="61" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>1664</v>
       </c>
@@ -19433,10 +19209,8 @@
       <c r="G61" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I61" s="10"/>
-      <c r="J61" s="8"/>
-    </row>
-    <row r="62" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>1665</v>
       </c>
@@ -19458,10 +19232,8 @@
       <c r="G62" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I62" s="10"/>
-      <c r="J62" s="8"/>
-    </row>
-    <row r="63" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
         <v>957</v>
       </c>
@@ -19475,7 +19247,7 @@
         <v>1023</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F63" s="16">
         <v>9</v>
@@ -19483,10 +19255,8 @@
       <c r="G63" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I63" s="10"/>
-      <c r="J63" s="8"/>
-    </row>
-    <row r="64" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
         <v>958</v>
       </c>
@@ -19500,7 +19270,7 @@
         <v>1024</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F64" s="16">
         <v>9</v>
@@ -19508,10 +19278,8 @@
       <c r="G64" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I64" s="1"/>
-      <c r="J64" s="4"/>
-    </row>
-    <row r="65" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
         <v>1666</v>
       </c>
@@ -19525,7 +19293,7 @@
         <v>1025</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F65" s="16">
         <v>9</v>
@@ -19533,10 +19301,8 @@
       <c r="G65" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I65" s="1"/>
-      <c r="J65" s="4"/>
-    </row>
-    <row r="66" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>1667</v>
       </c>
@@ -19550,7 +19316,7 @@
         <v>1026</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F66" s="16">
         <v>9</v>
@@ -19558,10 +19324,8 @@
       <c r="G66" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I66" s="1"/>
-      <c r="J66" s="4"/>
-    </row>
-    <row r="67" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
         <v>1668</v>
       </c>
@@ -19575,7 +19339,7 @@
         <v>1027</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F67" s="16">
         <v>9</v>
@@ -19583,10 +19347,8 @@
       <c r="G67" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I67" s="1"/>
-      <c r="J67" s="4"/>
-    </row>
-    <row r="68" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
         <v>1669</v>
       </c>
@@ -19600,7 +19362,7 @@
         <v>1028</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F68" s="16">
         <v>9</v>
@@ -19608,10 +19370,8 @@
       <c r="G68" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I68" s="1"/>
-      <c r="J68" s="4"/>
-    </row>
-    <row r="69" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
         <v>1670</v>
       </c>
@@ -19625,7 +19385,7 @@
         <v>1029</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F69" s="16">
         <v>9</v>
@@ -19633,10 +19393,8 @@
       <c r="G69" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I69" s="1"/>
-      <c r="J69" s="4"/>
-    </row>
-    <row r="70" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>1671</v>
       </c>
@@ -19650,7 +19408,7 @@
         <v>1030</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F70" s="16">
         <v>9</v>
@@ -19658,10 +19416,8 @@
       <c r="G70" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I70" s="1"/>
-      <c r="J70" s="4"/>
-    </row>
-    <row r="71" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>1672</v>
       </c>
@@ -19675,7 +19431,7 @@
         <v>1733</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F71" s="16">
         <v>9</v>
@@ -19684,7 +19440,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>1673</v>
       </c>
@@ -19698,7 +19454,7 @@
         <v>1031</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F72" s="16">
         <v>9</v>
@@ -19707,7 +19463,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>959</v>
       </c>
@@ -19721,7 +19477,7 @@
         <v>1734</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F73" s="16">
         <v>9</v>
@@ -19730,7 +19486,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>960</v>
       </c>
@@ -19744,7 +19500,7 @@
         <v>1032</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="F74" s="16">
         <v>9</v>
@@ -19753,14 +19509,14 @@
         <v>537</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>1827</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="20" t="s">
         <v>1828</v>
       </c>
       <c r="D75" s="15" t="s">
@@ -19776,14 +19532,14 @@
         <v>537</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>1675</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>1827</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="20" t="s">
         <v>1829</v>
       </c>
       <c r="D76" s="15" t="s">
@@ -19799,14 +19555,14 @@
         <v>537</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
         <v>1676</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>1827</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="20" t="s">
         <v>1830</v>
       </c>
       <c r="D77" s="15" t="s">
@@ -19822,14 +19578,14 @@
         <v>537</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
         <v>1677</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>1827</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="20" t="s">
         <v>1831</v>
       </c>
       <c r="D78" s="15" t="s">
@@ -19845,14 +19601,14 @@
         <v>537</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>961</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>1874</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="20" t="s">
         <v>1833</v>
       </c>
       <c r="D79" s="15" t="s">
@@ -19868,14 +19624,14 @@
         <v>537</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>962</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>1874</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="20" t="s">
         <v>1834</v>
       </c>
       <c r="D80" s="15" t="s">
@@ -19898,7 +19654,7 @@
       <c r="B81" s="13" t="s">
         <v>1874</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="20" t="s">
         <v>1835</v>
       </c>
       <c r="D81" s="15" t="s">
@@ -19921,7 +19677,7 @@
       <c r="B82" s="13" t="s">
         <v>1874</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="20" t="s">
         <v>1836</v>
       </c>
       <c r="D82" s="15" t="s">
@@ -19944,7 +19700,7 @@
       <c r="B83" s="13" t="s">
         <v>1874</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="20" t="s">
         <v>1837</v>
       </c>
       <c r="D83" s="15" t="s">
@@ -19967,7 +19723,7 @@
       <c r="B84" s="13" t="s">
         <v>1874</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="20" t="s">
         <v>1838</v>
       </c>
       <c r="D84" s="15" t="s">
@@ -19990,7 +19746,7 @@
       <c r="B85" s="13" t="s">
         <v>1874</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="20" t="s">
         <v>1839</v>
       </c>
       <c r="D85" s="15" t="s">
@@ -20013,7 +19769,7 @@
       <c r="B86" s="13" t="s">
         <v>1874</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="20" t="s">
         <v>1840</v>
       </c>
       <c r="D86" s="15" t="s">
@@ -20036,7 +19792,7 @@
       <c r="B87" s="13" t="s">
         <v>1874</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="20" t="s">
         <v>1841</v>
       </c>
       <c r="D87" s="15" t="s">
@@ -20059,7 +19815,7 @@
       <c r="B88" s="13" t="s">
         <v>1874</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="20" t="s">
         <v>1842</v>
       </c>
       <c r="D88" s="15" t="s">
@@ -20082,7 +19838,7 @@
       <c r="B89" s="13" t="s">
         <v>1874</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="20" t="s">
         <v>1843</v>
       </c>
       <c r="D89" s="15" t="s">
@@ -20105,7 +19861,7 @@
       <c r="B90" s="13" t="s">
         <v>1874</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="20" t="s">
         <v>1844</v>
       </c>
       <c r="D90" s="15" t="s">
@@ -20128,7 +19884,7 @@
       <c r="B91" s="13" t="s">
         <v>1874</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="20" t="s">
         <v>1845</v>
       </c>
       <c r="D91" s="15" t="s">
@@ -20259,7 +20015,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="97" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
         <v>979</v>
       </c>
@@ -20282,7 +20038,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="98" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
         <v>980</v>
       </c>
@@ -20305,7 +20061,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="99" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
         <v>981</v>
       </c>
@@ -20328,7 +20084,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="100" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>982</v>
       </c>
@@ -20351,7 +20107,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="101" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
         <v>983</v>
       </c>
@@ -20374,7 +20130,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
         <v>1678</v>
       </c>
@@ -20397,14 +20153,14 @@
         <v>537</v>
       </c>
     </row>
-    <row r="103" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
         <v>1679</v>
       </c>
       <c r="B103" s="13" t="s">
         <v>1846</v>
       </c>
-      <c r="C103" s="22" t="s">
+      <c r="C103" s="20" t="s">
         <v>1851</v>
       </c>
       <c r="D103" s="15" t="s">
@@ -20419,11 +20175,8 @@
       <c r="G103" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I103" s="1"/>
-      <c r="J103" s="4"/>
-      <c r="L103" s="10"/>
-    </row>
-    <row r="104" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
         <v>1680</v>
       </c>
@@ -20445,18 +20198,15 @@
       <c r="G104" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I104" s="1"/>
-      <c r="J104" s="4"/>
-      <c r="L104" s="10"/>
-    </row>
-    <row r="105" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
         <v>1681</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>1846</v>
       </c>
-      <c r="C105" s="22" t="s">
+      <c r="C105" s="20" t="s">
         <v>1853</v>
       </c>
       <c r="D105" s="15" t="s">
@@ -20471,18 +20221,15 @@
       <c r="G105" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I105" s="1"/>
-      <c r="J105" s="4"/>
-      <c r="L105" s="1"/>
-    </row>
-    <row r="106" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
         <v>1682</v>
       </c>
       <c r="B106" s="13" t="s">
         <v>1846</v>
       </c>
-      <c r="C106" s="22" t="s">
+      <c r="C106" s="20" t="s">
         <v>1854</v>
       </c>
       <c r="D106" s="15" t="s">
@@ -20497,18 +20244,15 @@
       <c r="G106" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I106" s="1"/>
-      <c r="J106" s="4"/>
-      <c r="L106" s="1"/>
-    </row>
-    <row r="107" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>1683</v>
       </c>
       <c r="B107" s="13" t="s">
         <v>1846</v>
       </c>
-      <c r="C107" s="22" t="s">
+      <c r="C107" s="20" t="s">
         <v>1855</v>
       </c>
       <c r="D107" s="15" t="s">
@@ -20523,18 +20267,15 @@
       <c r="G107" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I107" s="1"/>
-      <c r="J107" s="4"/>
-      <c r="L107" s="1"/>
-    </row>
-    <row r="108" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>1684</v>
       </c>
       <c r="B108" s="13" t="s">
         <v>1846</v>
       </c>
-      <c r="C108" s="22" t="s">
+      <c r="C108" s="20" t="s">
         <v>1856</v>
       </c>
       <c r="D108" s="15" t="s">
@@ -20549,18 +20290,15 @@
       <c r="G108" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I108" s="10"/>
-      <c r="J108" s="8"/>
-      <c r="L108" s="10"/>
-    </row>
-    <row r="109" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
         <v>1685</v>
       </c>
       <c r="B109" s="13" t="s">
         <v>1846</v>
       </c>
-      <c r="C109" s="22" t="s">
+      <c r="C109" s="20" t="s">
         <v>1857</v>
       </c>
       <c r="D109" s="15" t="s">
@@ -20575,18 +20313,15 @@
       <c r="G109" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I109" s="10"/>
-      <c r="J109" s="8"/>
-      <c r="L109" s="10"/>
-    </row>
-    <row r="110" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
         <v>1686</v>
       </c>
       <c r="B110" s="13" t="s">
         <v>1846</v>
       </c>
-      <c r="C110" s="22" t="s">
+      <c r="C110" s="20" t="s">
         <v>1858</v>
       </c>
       <c r="D110" s="15" t="s">
@@ -20601,18 +20336,15 @@
       <c r="G110" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I110" s="10"/>
-      <c r="J110" s="9"/>
-      <c r="L110" s="10"/>
-    </row>
-    <row r="111" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
         <v>1687</v>
       </c>
       <c r="B111" s="13" t="s">
         <v>1846</v>
       </c>
-      <c r="C111" s="25" t="s">
+      <c r="C111" s="23" t="s">
         <v>1859</v>
       </c>
       <c r="D111" s="15" t="s">
@@ -20627,18 +20359,15 @@
       <c r="G111" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I111" s="10"/>
-      <c r="J111" s="8"/>
-      <c r="L111" s="10"/>
-    </row>
-    <row r="112" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
         <v>1688</v>
       </c>
       <c r="B112" s="13" t="s">
         <v>1846</v>
       </c>
-      <c r="C112" s="25" t="s">
+      <c r="C112" s="23" t="s">
         <v>1860</v>
       </c>
       <c r="D112" s="15" t="s">
@@ -20653,18 +20382,15 @@
       <c r="G112" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I112" s="10"/>
-      <c r="J112" s="8"/>
-      <c r="L112" s="10"/>
-    </row>
-    <row r="113" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>1689</v>
       </c>
       <c r="B113" s="13" t="s">
         <v>1846</v>
       </c>
-      <c r="C113" s="22" t="s">
+      <c r="C113" s="20" t="s">
         <v>1861</v>
       </c>
       <c r="D113" s="15" t="s">
@@ -20679,18 +20405,15 @@
       <c r="G113" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I113" s="10"/>
-      <c r="J113" s="9"/>
-      <c r="L113" s="10"/>
-    </row>
-    <row r="114" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
         <v>984</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>1862</v>
       </c>
-      <c r="C114" s="25" t="s">
+      <c r="C114" s="23" t="s">
         <v>1863</v>
       </c>
       <c r="D114" s="15" t="s">
@@ -20705,18 +20428,15 @@
       <c r="G114" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I114" s="10"/>
-      <c r="J114" s="8"/>
-      <c r="L114" s="10"/>
-    </row>
-    <row r="115" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
         <v>985</v>
       </c>
       <c r="B115" s="11" t="s">
         <v>1862</v>
       </c>
-      <c r="C115" s="25" t="s">
+      <c r="C115" s="23" t="s">
         <v>1864</v>
       </c>
       <c r="D115" s="15" t="s">
@@ -20731,18 +20451,15 @@
       <c r="G115" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I115" s="10"/>
-      <c r="J115" s="8"/>
-      <c r="L115" s="10"/>
-    </row>
-    <row r="116" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
         <v>986</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>1862</v>
       </c>
-      <c r="C116" s="25" t="s">
+      <c r="C116" s="23" t="s">
         <v>1865</v>
       </c>
       <c r="D116" s="15" t="s">
@@ -20757,18 +20474,15 @@
       <c r="G116" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I116" s="10"/>
-      <c r="J116" s="8"/>
-      <c r="L116" s="10"/>
-    </row>
-    <row r="117" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
         <v>987</v>
       </c>
       <c r="B117" s="13" t="s">
         <v>1866</v>
       </c>
-      <c r="C117" s="22" t="s">
+      <c r="C117" s="20" t="s">
         <v>1867</v>
       </c>
       <c r="D117" s="15" t="s">
@@ -20783,14 +20497,13 @@
       <c r="G117" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="L117" s="1"/>
-    </row>
-    <row r="118" spans="1:12" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
         <v>1690</v>
       </c>
       <c r="B118" s="10"/>
-      <c r="C118" s="24"/>
+      <c r="C118" s="22"/>
       <c r="D118" s="15" t="s">
         <v>1772</v>
       </c>
@@ -20799,14 +20512,13 @@
         <v>278</v>
       </c>
       <c r="G118" s="10"/>
-      <c r="L118" s="1"/>
-    </row>
-    <row r="119" spans="1:12" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B119" s="10"/>
-      <c r="C119" s="24"/>
+      <c r="C119" s="22"/>
       <c r="D119" s="15" t="s">
         <v>1314</v>
       </c>
@@ -20817,14 +20529,13 @@
       <c r="G119" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L119" s="1"/>
-    </row>
-    <row r="120" spans="1:12" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B120" s="10"/>
-      <c r="C120" s="24"/>
+      <c r="C120" s="22"/>
       <c r="D120" s="15" t="s">
         <v>1316</v>
       </c>
@@ -20835,14 +20546,13 @@
       <c r="G120" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L120" s="1"/>
-    </row>
-    <row r="121" spans="1:12" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B121" s="10"/>
-      <c r="C121" s="24"/>
+      <c r="C121" s="22"/>
       <c r="D121" s="15" t="s">
         <v>1315</v>
       </c>
@@ -20853,14 +20563,13 @@
       <c r="G121" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L121" s="10"/>
-    </row>
-    <row r="122" spans="1:12" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
         <v>1123</v>
       </c>
       <c r="B122" s="10"/>
-      <c r="C122" s="24"/>
+      <c r="C122" s="22"/>
       <c r="D122" s="15" t="s">
         <v>1324</v>
       </c>
@@ -20871,14 +20580,13 @@
       <c r="G122" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L122" s="1"/>
-    </row>
-    <row r="123" spans="1:12" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
         <v>1124</v>
       </c>
       <c r="B123" s="10"/>
-      <c r="C123" s="24"/>
+      <c r="C123" s="22"/>
       <c r="D123" s="15" t="s">
         <v>1325</v>
       </c>
@@ -20889,14 +20597,13 @@
       <c r="G123" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L123" s="10"/>
-    </row>
-    <row r="124" spans="1:12" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
         <v>988</v>
       </c>
       <c r="B124" s="10"/>
-      <c r="C124" s="24"/>
+      <c r="C124" s="22"/>
       <c r="D124" s="15" t="s">
         <v>1773</v>
       </c>
@@ -20907,14 +20614,13 @@
       <c r="G124" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L124" s="1"/>
-    </row>
-    <row r="125" spans="1:12" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
         <v>989</v>
       </c>
       <c r="B125" s="10"/>
-      <c r="C125" s="24"/>
+      <c r="C125" s="22"/>
       <c r="D125" s="15" t="s">
         <v>1774</v>
       </c>
@@ -20925,14 +20631,13 @@
       <c r="G125" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L125" s="10"/>
-    </row>
-    <row r="126" spans="1:12" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
         <v>789</v>
       </c>
       <c r="B126" s="10"/>
-      <c r="C126" s="24"/>
+      <c r="C126" s="22"/>
       <c r="D126" s="15" t="s">
         <v>1775</v>
       </c>
@@ -20943,16 +20648,13 @@
       <c r="G126" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I126" s="10"/>
-      <c r="J126" s="8"/>
-      <c r="L126" s="1"/>
-    </row>
-    <row r="127" spans="1:12" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="15" t="s">
         <v>792</v>
       </c>
       <c r="B127" s="10"/>
-      <c r="C127" s="24"/>
+      <c r="C127" s="22"/>
       <c r="D127" s="15" t="s">
         <v>1776</v>
       </c>
@@ -20963,9 +20665,8 @@
       <c r="G127" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L127" s="1"/>
-    </row>
-    <row r="128" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:7" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="15" t="s">
         <v>990</v>
       </c>
@@ -20979,9 +20680,8 @@
       <c r="G128" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L128" s="10"/>
-    </row>
-    <row r="129" spans="1:12" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:7" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
         <v>991</v>
       </c>
@@ -20995,11 +20695,8 @@
       <c r="G129" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I129" s="10"/>
-      <c r="J129" s="8"/>
-      <c r="L129" s="10"/>
-    </row>
-    <row r="130" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
         <v>994</v>
       </c>
@@ -21019,11 +20716,8 @@
       <c r="G130" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I130" s="10"/>
-      <c r="J130" s="8"/>
-      <c r="L130" s="10"/>
-    </row>
-    <row r="131" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="15" t="s">
         <v>995</v>
       </c>
@@ -21036,8 +20730,8 @@
       <c r="D131" s="15" t="s">
         <v>1778</v>
       </c>
-      <c r="E131" s="19" t="s">
-        <v>881</v>
+      <c r="E131" s="10" t="s">
+        <v>538</v>
       </c>
       <c r="F131" s="16" t="s">
         <v>1508</v>
@@ -21045,11 +20739,8 @@
       <c r="G131" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I131" s="10"/>
-      <c r="J131" s="8"/>
-      <c r="L131" s="10"/>
-    </row>
-    <row r="132" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
         <v>992</v>
       </c>
@@ -21069,11 +20760,8 @@
       <c r="G132" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I132" s="10"/>
-      <c r="J132" s="8"/>
-      <c r="L132" s="10"/>
-    </row>
-    <row r="133" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
         <v>993</v>
       </c>
@@ -21086,8 +20774,8 @@
       <c r="D133" s="15" t="s">
         <v>1780</v>
       </c>
-      <c r="E133" s="19" t="s">
-        <v>881</v>
+      <c r="E133" s="10" t="s">
+        <v>538</v>
       </c>
       <c r="F133" s="16" t="s">
         <v>1508</v>
@@ -21095,11 +20783,8 @@
       <c r="G133" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I133" s="10"/>
-      <c r="J133" s="8"/>
-      <c r="L133" s="10"/>
-    </row>
-    <row r="134" spans="1:12" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
         <v>996</v>
       </c>
@@ -21119,11 +20804,8 @@
       <c r="G134" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I134" s="10"/>
-      <c r="J134" s="8"/>
-      <c r="L134" s="10"/>
-    </row>
-    <row r="135" spans="1:12" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="15" t="s">
         <v>997</v>
       </c>
@@ -21145,11 +20827,8 @@
       <c r="G135" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I135" s="10"/>
-      <c r="J135" s="8"/>
-      <c r="L135" s="10"/>
-    </row>
-    <row r="136" spans="1:12" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="15" t="s">
         <v>998</v>
       </c>
@@ -21169,11 +20848,8 @@
       <c r="G136" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I136" s="10"/>
-      <c r="J136" s="8"/>
-      <c r="L136" s="10"/>
-    </row>
-    <row r="137" spans="1:12" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="15" t="s">
         <v>999</v>
       </c>
@@ -21186,8 +20862,8 @@
       <c r="D137" s="15" t="s">
         <v>1784</v>
       </c>
-      <c r="E137" s="19" t="s">
-        <v>881</v>
+      <c r="E137" s="10" t="s">
+        <v>538</v>
       </c>
       <c r="F137" s="16" t="s">
         <v>1508</v>
@@ -21195,11 +20871,8 @@
       <c r="G137" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I137" s="10"/>
-      <c r="J137" s="8"/>
-      <c r="L137" s="10"/>
-    </row>
-    <row r="138" spans="1:12" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="15" t="s">
         <v>1000</v>
       </c>
@@ -21212,7 +20885,7 @@
       <c r="D138" s="15" t="s">
         <v>1785</v>
       </c>
-      <c r="E138" s="15" t="s">
+      <c r="E138" s="10" t="s">
         <v>538</v>
       </c>
       <c r="F138" s="16" t="s">
@@ -21222,7 +20895,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="139" spans="1:12" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
         <v>1691</v>
       </c>
@@ -21235,7 +20908,7 @@
       <c r="D139" s="15" t="s">
         <v>1786</v>
       </c>
-      <c r="E139" s="15" t="s">
+      <c r="E139" s="13" t="s">
         <v>536</v>
       </c>
       <c r="F139" s="16" t="s">
@@ -21245,20 +20918,20 @@
         <v>537</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
         <v>1692</v>
       </c>
       <c r="B140" s="13" t="s">
         <v>1868</v>
       </c>
-      <c r="C140" s="22" t="s">
+      <c r="C140" s="20" t="s">
         <v>1878</v>
       </c>
       <c r="D140" s="15" t="s">
         <v>1787</v>
       </c>
-      <c r="E140" s="15" t="s">
+      <c r="E140" s="11" t="s">
         <v>536</v>
       </c>
       <c r="F140" s="16" t="s">
@@ -21267,24 +20940,21 @@
       <c r="G140" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I140" s="10"/>
-      <c r="J140" s="8"/>
-      <c r="L140" s="10"/>
-    </row>
-    <row r="141" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="15" t="s">
         <v>1693</v>
       </c>
       <c r="B141" s="13" t="s">
         <v>1800</v>
       </c>
-      <c r="C141" s="22" t="s">
+      <c r="C141" s="20" t="s">
         <v>1879</v>
       </c>
       <c r="D141" s="15" t="s">
         <v>1788</v>
       </c>
-      <c r="E141" s="15" t="s">
+      <c r="E141" s="13" t="s">
         <v>536</v>
       </c>
       <c r="F141" s="16" t="s">
@@ -21293,11 +20963,8 @@
       <c r="G141" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I141" s="10"/>
-      <c r="J141" s="8"/>
-      <c r="L141" s="10"/>
-    </row>
-    <row r="142" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
         <v>1694</v>
       </c>
@@ -21317,18 +20984,15 @@
       <c r="G142" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I142" s="10"/>
-      <c r="J142" s="8"/>
-      <c r="L142" s="10"/>
-    </row>
-    <row r="143" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
         <v>1695</v>
       </c>
       <c r="B143" s="13" t="s">
         <v>1869</v>
       </c>
-      <c r="C143" s="25" t="s">
+      <c r="C143" s="23" t="s">
         <v>1871</v>
       </c>
       <c r="D143" s="15" t="s">
@@ -21341,16 +21005,13 @@
       <c r="G143" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I143" s="10"/>
-      <c r="J143" s="9"/>
-      <c r="L143" s="10"/>
-    </row>
-    <row r="144" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
         <v>1125</v>
       </c>
       <c r="B144" s="10"/>
-      <c r="C144" s="21"/>
+      <c r="C144" s="19"/>
       <c r="D144" s="15" t="s">
         <v>1791</v>
       </c>
@@ -21361,16 +21022,13 @@
       <c r="G144" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I144" s="10"/>
-      <c r="J144" s="9"/>
-      <c r="L144" s="10"/>
-    </row>
-    <row r="145" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
         <v>276</v>
       </c>
       <c r="B145" s="10"/>
-      <c r="C145" s="24"/>
+      <c r="C145" s="22"/>
       <c r="D145" s="15" t="s">
         <v>277</v>
       </c>
@@ -21381,945 +21039,708 @@
       <c r="G145" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I145" s="10"/>
-      <c r="J145" s="8"/>
-      <c r="L145" s="10"/>
-    </row>
-    <row r="146" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="15"/>
       <c r="B146" s="10"/>
-      <c r="C146" s="24"/>
+      <c r="C146" s="22"/>
       <c r="D146" s="15"/>
       <c r="E146" s="10"/>
       <c r="F146" s="16"/>
       <c r="G146" s="10"/>
-      <c r="I146" s="10"/>
-      <c r="J146" s="8"/>
-      <c r="L146" s="10"/>
-    </row>
-    <row r="147" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="15"/>
       <c r="B147" s="10"/>
-      <c r="C147" s="24"/>
+      <c r="C147" s="22"/>
       <c r="D147" s="15"/>
       <c r="E147" s="10"/>
       <c r="F147" s="16"/>
       <c r="G147" s="10"/>
-      <c r="I147" s="10"/>
-      <c r="J147" s="8"/>
-      <c r="L147" s="10"/>
-    </row>
-    <row r="148" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="15"/>
       <c r="B148" s="10"/>
-      <c r="C148" s="24"/>
+      <c r="C148" s="22"/>
       <c r="D148" s="15"/>
       <c r="E148" s="10"/>
       <c r="F148" s="16"/>
       <c r="G148" s="10"/>
-      <c r="I148" s="10"/>
-      <c r="J148" s="8"/>
-      <c r="L148" s="10"/>
-    </row>
-    <row r="149" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="15"/>
       <c r="B149" s="10"/>
-      <c r="C149" s="21"/>
+      <c r="C149" s="19"/>
       <c r="D149" s="15"/>
       <c r="E149" s="10"/>
       <c r="F149" s="16"/>
       <c r="G149" s="10"/>
-      <c r="I149" s="10"/>
-      <c r="J149" s="9"/>
-      <c r="L149" s="10"/>
-    </row>
-    <row r="150" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="15"/>
       <c r="B150" s="10"/>
-      <c r="C150" s="24"/>
+      <c r="C150" s="22"/>
       <c r="D150" s="15"/>
       <c r="E150" s="10"/>
       <c r="F150" s="16"/>
       <c r="G150" s="10"/>
-      <c r="I150" s="10"/>
-      <c r="J150" s="8"/>
-      <c r="L150" s="10"/>
-    </row>
-    <row r="151" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="15"/>
       <c r="B151" s="10"/>
-      <c r="C151" s="24"/>
+      <c r="C151" s="22"/>
       <c r="D151" s="15"/>
       <c r="E151" s="10"/>
       <c r="F151" s="16"/>
       <c r="G151" s="10"/>
-      <c r="I151" s="10"/>
-      <c r="J151" s="8"/>
-      <c r="L151" s="10"/>
-    </row>
-    <row r="152" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="15"/>
       <c r="B152" s="10"/>
-      <c r="C152" s="24"/>
+      <c r="C152" s="22"/>
       <c r="D152" s="15"/>
       <c r="E152" s="10"/>
       <c r="F152" s="16"/>
       <c r="G152" s="10"/>
-      <c r="I152" s="10"/>
-      <c r="J152" s="8"/>
-      <c r="L152" s="10"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="15"/>
       <c r="B153" s="10"/>
-      <c r="C153" s="24"/>
+      <c r="C153" s="22"/>
       <c r="D153" s="15"/>
       <c r="E153" s="10"/>
       <c r="F153" s="16"/>
       <c r="G153" s="10"/>
-      <c r="I153" s="10"/>
-      <c r="J153" s="8"/>
-      <c r="L153" s="10"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="15"/>
       <c r="B154" s="10"/>
-      <c r="C154" s="24"/>
+      <c r="C154" s="22"/>
       <c r="D154" s="15"/>
       <c r="E154" s="10"/>
       <c r="F154" s="16"/>
       <c r="G154" s="10"/>
-      <c r="I154" s="10"/>
-      <c r="J154" s="8"/>
-      <c r="L154" s="10"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="15"/>
       <c r="B155" s="10"/>
-      <c r="C155" s="21"/>
+      <c r="C155" s="19"/>
       <c r="D155" s="15"/>
       <c r="E155" s="10"/>
       <c r="F155" s="16"/>
       <c r="G155" s="10"/>
-      <c r="I155" s="10"/>
-      <c r="J155" s="9"/>
-      <c r="L155" s="10"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="15"/>
       <c r="B156" s="10"/>
-      <c r="C156" s="21"/>
+      <c r="C156" s="19"/>
       <c r="D156" s="15"/>
       <c r="E156" s="10"/>
       <c r="F156" s="16"/>
       <c r="G156" s="10"/>
-      <c r="I156" s="10"/>
-      <c r="J156" s="9"/>
-      <c r="L156" s="10"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="15"/>
       <c r="B157" s="10"/>
-      <c r="C157" s="21"/>
+      <c r="C157" s="19"/>
       <c r="D157" s="15"/>
       <c r="E157" s="10"/>
       <c r="F157" s="16"/>
       <c r="G157" s="10"/>
-      <c r="I157" s="10"/>
-      <c r="J157" s="9"/>
-      <c r="L157" s="10"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="15"/>
       <c r="B158" s="10"/>
-      <c r="C158" s="24"/>
+      <c r="C158" s="22"/>
       <c r="D158" s="15"/>
       <c r="E158" s="10"/>
       <c r="F158" s="16"/>
       <c r="G158" s="10"/>
-      <c r="I158" s="10"/>
-      <c r="J158" s="8"/>
-      <c r="L158" s="10"/>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="15"/>
       <c r="B159" s="10"/>
-      <c r="C159" s="24"/>
+      <c r="C159" s="22"/>
       <c r="D159" s="15"/>
       <c r="E159" s="10"/>
       <c r="F159" s="16"/>
       <c r="G159" s="10"/>
-      <c r="I159" s="10"/>
-      <c r="J159" s="8"/>
-      <c r="L159" s="10"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="15"/>
       <c r="B160" s="10"/>
-      <c r="C160" s="24"/>
+      <c r="C160" s="22"/>
       <c r="D160" s="15"/>
       <c r="E160" s="10"/>
       <c r="F160" s="16"/>
       <c r="G160" s="10"/>
-      <c r="I160" s="10"/>
-      <c r="J160" s="8"/>
-      <c r="L160" s="10"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="15"/>
       <c r="B161" s="10"/>
-      <c r="C161" s="21"/>
+      <c r="C161" s="19"/>
       <c r="D161" s="15"/>
       <c r="E161" s="10"/>
       <c r="F161" s="16"/>
       <c r="G161" s="10"/>
-      <c r="I161" s="10"/>
-      <c r="J161" s="9"/>
-      <c r="L161" s="10"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="15"/>
       <c r="B162" s="10"/>
-      <c r="C162" s="24"/>
+      <c r="C162" s="22"/>
       <c r="D162" s="15"/>
       <c r="E162" s="10"/>
       <c r="F162" s="16"/>
       <c r="G162" s="10"/>
-      <c r="I162" s="10"/>
-      <c r="J162" s="8"/>
-      <c r="L162" s="10"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="15"/>
       <c r="B163" s="10"/>
-      <c r="C163" s="24"/>
+      <c r="C163" s="22"/>
       <c r="D163" s="15"/>
       <c r="E163" s="10"/>
       <c r="F163" s="16"/>
       <c r="G163" s="10"/>
-      <c r="I163" s="10"/>
-      <c r="J163" s="8"/>
-      <c r="L163" s="10"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="15"/>
       <c r="B164" s="10"/>
-      <c r="C164" s="24"/>
+      <c r="C164" s="22"/>
       <c r="D164" s="15"/>
       <c r="E164" s="10"/>
       <c r="F164" s="16"/>
       <c r="G164" s="10"/>
-      <c r="I164" s="10"/>
-      <c r="J164" s="8"/>
-      <c r="L164" s="10"/>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="15"/>
       <c r="B165" s="10"/>
-      <c r="C165" s="24"/>
+      <c r="C165" s="22"/>
       <c r="D165" s="15"/>
       <c r="E165" s="10"/>
       <c r="F165" s="16"/>
       <c r="G165" s="10"/>
-      <c r="I165" s="10"/>
-      <c r="J165" s="8"/>
-      <c r="L165" s="10"/>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="15"/>
       <c r="B166" s="10"/>
-      <c r="C166" s="24"/>
+      <c r="C166" s="22"/>
       <c r="D166" s="15"/>
       <c r="E166" s="10"/>
       <c r="F166" s="16"/>
       <c r="G166" s="10"/>
-      <c r="I166" s="10"/>
-      <c r="J166" s="8"/>
-      <c r="L166" s="10"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="15"/>
       <c r="B167" s="10"/>
-      <c r="C167" s="21"/>
+      <c r="C167" s="19"/>
       <c r="D167" s="15"/>
       <c r="E167" s="10"/>
       <c r="F167" s="16"/>
       <c r="G167" s="10"/>
-      <c r="I167" s="10"/>
-      <c r="J167" s="9"/>
-      <c r="L167" s="10"/>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="15"/>
       <c r="B168" s="10"/>
-      <c r="C168" s="21"/>
+      <c r="C168" s="19"/>
       <c r="D168" s="15"/>
       <c r="E168" s="10"/>
       <c r="F168" s="16"/>
       <c r="G168" s="10"/>
-      <c r="I168" s="10"/>
-      <c r="J168" s="9"/>
-      <c r="L168" s="10"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="15"/>
       <c r="B169" s="10"/>
-      <c r="C169" s="21"/>
+      <c r="C169" s="19"/>
       <c r="D169" s="15"/>
       <c r="E169" s="10"/>
       <c r="F169" s="16"/>
       <c r="G169" s="10"/>
-      <c r="I169" s="10"/>
-      <c r="J169" s="9"/>
-      <c r="L169" s="10"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="15"/>
       <c r="B170" s="10"/>
-      <c r="C170" s="21"/>
+      <c r="C170" s="19"/>
       <c r="D170" s="15"/>
       <c r="E170" s="10"/>
       <c r="F170" s="16"/>
       <c r="G170" s="10"/>
-      <c r="I170" s="10"/>
-      <c r="J170" s="9"/>
-      <c r="L170" s="10"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="15"/>
       <c r="B171" s="10"/>
-      <c r="C171" s="21"/>
+      <c r="C171" s="19"/>
       <c r="D171" s="15"/>
       <c r="E171" s="10"/>
       <c r="F171" s="16"/>
       <c r="G171" s="10"/>
-      <c r="I171" s="10"/>
-      <c r="J171" s="9"/>
-      <c r="L171" s="10"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="15"/>
       <c r="B172" s="10"/>
-      <c r="C172" s="21"/>
+      <c r="C172" s="19"/>
       <c r="D172" s="15"/>
       <c r="E172" s="10"/>
       <c r="F172" s="16"/>
       <c r="G172" s="10"/>
-      <c r="I172" s="10"/>
-      <c r="J172" s="9"/>
-      <c r="L172" s="10"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="15"/>
       <c r="B173" s="10"/>
-      <c r="C173" s="21"/>
+      <c r="C173" s="19"/>
       <c r="D173" s="15"/>
       <c r="E173" s="10"/>
       <c r="F173" s="16"/>
       <c r="G173" s="10"/>
-      <c r="I173" s="10"/>
-      <c r="J173" s="9"/>
-      <c r="L173" s="10"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="15"/>
       <c r="B174" s="10"/>
-      <c r="C174" s="21"/>
+      <c r="C174" s="19"/>
       <c r="D174" s="15"/>
       <c r="E174" s="10"/>
       <c r="F174" s="16"/>
       <c r="G174" s="10"/>
-      <c r="I174" s="10"/>
-      <c r="J174" s="9"/>
-      <c r="L174" s="10"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="15"/>
       <c r="B175" s="10"/>
-      <c r="C175" s="21"/>
+      <c r="C175" s="19"/>
       <c r="D175" s="15"/>
       <c r="E175" s="10"/>
       <c r="F175" s="16"/>
       <c r="G175" s="10"/>
-      <c r="I175" s="10"/>
-      <c r="J175" s="9"/>
-      <c r="L175" s="10"/>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="15"/>
       <c r="B176" s="10"/>
-      <c r="C176" s="21"/>
+      <c r="C176" s="19"/>
       <c r="D176" s="15"/>
       <c r="E176" s="10"/>
       <c r="F176" s="16"/>
       <c r="G176" s="10"/>
-      <c r="I176" s="10"/>
-      <c r="J176" s="9"/>
-      <c r="L176" s="10"/>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="15"/>
       <c r="B177" s="10"/>
-      <c r="C177" s="21"/>
+      <c r="C177" s="19"/>
       <c r="D177" s="15"/>
       <c r="E177" s="10"/>
       <c r="F177" s="16"/>
       <c r="G177" s="10"/>
-      <c r="I177" s="10"/>
-      <c r="J177" s="9"/>
-      <c r="L177" s="10"/>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="15"/>
       <c r="B178" s="10"/>
-      <c r="C178" s="21"/>
+      <c r="C178" s="19"/>
       <c r="D178" s="15"/>
       <c r="E178" s="10"/>
       <c r="F178" s="16"/>
       <c r="G178" s="10"/>
-      <c r="I178" s="10"/>
-      <c r="J178" s="9"/>
-      <c r="L178" s="10"/>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="15"/>
       <c r="B179" s="15"/>
-      <c r="C179" s="24"/>
+      <c r="C179" s="22"/>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
       <c r="F179" s="16"/>
       <c r="G179" s="10"/>
-      <c r="I179" s="15"/>
-      <c r="J179" s="8"/>
-      <c r="L179" s="15"/>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="15"/>
       <c r="B180" s="15"/>
-      <c r="C180" s="24"/>
+      <c r="C180" s="22"/>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
       <c r="F180" s="16"/>
       <c r="G180" s="10"/>
-      <c r="I180" s="15"/>
-      <c r="J180" s="8"/>
-      <c r="L180" s="15"/>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="15"/>
       <c r="B181" s="15"/>
-      <c r="C181" s="24"/>
+      <c r="C181" s="22"/>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
       <c r="F181" s="16"/>
       <c r="G181" s="10"/>
-      <c r="I181" s="15"/>
-      <c r="J181" s="8"/>
-      <c r="L181" s="15"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="15"/>
       <c r="B182" s="15"/>
-      <c r="C182" s="24"/>
+      <c r="C182" s="22"/>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
       <c r="F182" s="16"/>
       <c r="G182" s="10"/>
-      <c r="I182" s="15"/>
-      <c r="J182" s="8"/>
-      <c r="L182" s="15"/>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="15"/>
       <c r="B183" s="15"/>
-      <c r="C183" s="21"/>
+      <c r="C183" s="19"/>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
       <c r="F183" s="16"/>
       <c r="G183" s="10"/>
-      <c r="I183" s="15"/>
-      <c r="J183" s="9"/>
-      <c r="L183" s="15"/>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="15"/>
       <c r="B184" s="15"/>
-      <c r="C184" s="21"/>
+      <c r="C184" s="19"/>
       <c r="D184" s="15"/>
       <c r="E184" s="15"/>
       <c r="F184" s="16"/>
       <c r="G184" s="10"/>
-      <c r="I184" s="15"/>
-      <c r="J184" s="9"/>
-      <c r="L184" s="15"/>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="15"/>
       <c r="B185" s="15"/>
-      <c r="C185" s="24"/>
+      <c r="C185" s="22"/>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
       <c r="F185" s="16"/>
       <c r="G185" s="10"/>
-      <c r="I185" s="15"/>
-      <c r="J185" s="8"/>
-      <c r="L185" s="15"/>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="15"/>
       <c r="B186" s="15"/>
-      <c r="C186" s="24"/>
+      <c r="C186" s="22"/>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
       <c r="F186" s="16"/>
       <c r="G186" s="10"/>
-      <c r="I186" s="15"/>
-      <c r="J186" s="8"/>
-      <c r="L186" s="15"/>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="15"/>
       <c r="B187" s="15"/>
-      <c r="C187" s="24"/>
+      <c r="C187" s="22"/>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
       <c r="F187" s="16"/>
       <c r="G187" s="10"/>
-      <c r="I187" s="15"/>
-      <c r="J187" s="8"/>
-      <c r="L187" s="15"/>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="15"/>
       <c r="B188" s="15"/>
-      <c r="C188" s="24"/>
+      <c r="C188" s="22"/>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
       <c r="F188" s="16"/>
       <c r="G188" s="10"/>
-      <c r="I188" s="15"/>
-      <c r="J188" s="8"/>
-      <c r="L188" s="15"/>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="15"/>
       <c r="B189" s="15"/>
-      <c r="C189" s="21"/>
+      <c r="C189" s="19"/>
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
       <c r="F189" s="16"/>
       <c r="G189" s="10"/>
-      <c r="I189" s="15"/>
-      <c r="J189" s="9"/>
-      <c r="L189" s="15"/>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="15"/>
       <c r="B190" s="15"/>
-      <c r="C190" s="24"/>
+      <c r="C190" s="22"/>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
       <c r="F190" s="16"/>
       <c r="G190" s="10"/>
-      <c r="I190" s="15"/>
-      <c r="J190" s="8"/>
-      <c r="L190" s="15"/>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="15"/>
       <c r="B191" s="15"/>
-      <c r="C191" s="24"/>
+      <c r="C191" s="22"/>
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
       <c r="F191" s="16"/>
       <c r="G191" s="10"/>
-      <c r="I191" s="15"/>
-      <c r="J191" s="8"/>
-      <c r="L191" s="15"/>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="15"/>
       <c r="B192" s="15"/>
-      <c r="C192" s="24"/>
+      <c r="C192" s="22"/>
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
       <c r="F192" s="16"/>
       <c r="G192" s="10"/>
-      <c r="I192" s="15"/>
-      <c r="J192" s="8"/>
-      <c r="L192" s="15"/>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="15"/>
       <c r="B193" s="15"/>
-      <c r="C193" s="24"/>
+      <c r="C193" s="22"/>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
       <c r="F193" s="16"/>
       <c r="G193" s="10"/>
-      <c r="I193" s="15"/>
-      <c r="J193" s="8"/>
-      <c r="L193" s="15"/>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="15"/>
       <c r="B194" s="15"/>
-      <c r="C194" s="24"/>
+      <c r="C194" s="22"/>
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
       <c r="F194" s="16"/>
       <c r="G194" s="10"/>
-      <c r="I194" s="15"/>
-      <c r="J194" s="8"/>
-      <c r="L194" s="15"/>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="15"/>
       <c r="B195" s="15"/>
-      <c r="C195" s="21"/>
+      <c r="C195" s="19"/>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
       <c r="F195" s="16"/>
       <c r="G195" s="10"/>
-      <c r="I195" s="15"/>
-      <c r="J195" s="9"/>
-      <c r="L195" s="15"/>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="15"/>
       <c r="B196" s="15"/>
-      <c r="C196" s="21"/>
+      <c r="C196" s="19"/>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
       <c r="F196" s="16"/>
       <c r="G196" s="10"/>
-      <c r="I196" s="15"/>
-      <c r="J196" s="9"/>
-      <c r="L196" s="15"/>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="15"/>
       <c r="B197" s="15"/>
-      <c r="C197" s="21"/>
+      <c r="C197" s="19"/>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
       <c r="F197" s="16"/>
       <c r="G197" s="10"/>
-      <c r="I197" s="15"/>
-      <c r="J197" s="9"/>
-      <c r="L197" s="15"/>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="15"/>
       <c r="B198" s="15"/>
-      <c r="C198" s="24"/>
+      <c r="C198" s="22"/>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
       <c r="F198" s="16"/>
       <c r="G198" s="10"/>
-      <c r="I198" s="15"/>
-      <c r="J198" s="8"/>
-      <c r="L198" s="15"/>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="15"/>
       <c r="B199" s="15"/>
-      <c r="C199" s="24"/>
+      <c r="C199" s="22"/>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
       <c r="F199" s="16"/>
       <c r="G199" s="10"/>
-      <c r="I199" s="15"/>
-      <c r="J199" s="8"/>
-      <c r="L199" s="15"/>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="15"/>
       <c r="B200" s="15"/>
-      <c r="C200" s="24"/>
+      <c r="C200" s="22"/>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
       <c r="F200" s="16"/>
       <c r="G200" s="10"/>
-      <c r="I200" s="15"/>
-      <c r="J200" s="8"/>
-      <c r="L200" s="15"/>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="15"/>
       <c r="B201" s="15"/>
-      <c r="C201" s="21"/>
+      <c r="C201" s="19"/>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
       <c r="F201" s="16"/>
       <c r="G201" s="10"/>
-      <c r="I201" s="15"/>
-      <c r="J201" s="9"/>
-      <c r="L201" s="15"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="15"/>
       <c r="B202" s="10"/>
-      <c r="C202" s="24"/>
+      <c r="C202" s="22"/>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
       <c r="F202" s="16"/>
       <c r="G202" s="10"/>
-      <c r="I202" s="10"/>
-      <c r="J202" s="8"/>
-      <c r="L202" s="15"/>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="15"/>
       <c r="B203" s="10"/>
-      <c r="C203" s="24"/>
+      <c r="C203" s="22"/>
       <c r="D203" s="15"/>
       <c r="E203" s="10"/>
       <c r="F203" s="16"/>
       <c r="G203" s="10"/>
-      <c r="I203" s="10"/>
-      <c r="J203" s="8"/>
-      <c r="L203" s="10"/>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="15"/>
       <c r="B204" s="10"/>
-      <c r="C204" s="24"/>
+      <c r="C204" s="22"/>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
       <c r="F204" s="16"/>
       <c r="G204" s="10"/>
-      <c r="I204" s="10"/>
-      <c r="J204" s="8"/>
-      <c r="L204" s="15"/>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="15"/>
       <c r="B205" s="10"/>
-      <c r="C205" s="24"/>
+      <c r="C205" s="22"/>
       <c r="D205" s="15"/>
       <c r="E205" s="10"/>
       <c r="F205" s="16"/>
       <c r="G205" s="10"/>
-      <c r="I205" s="10"/>
-      <c r="J205" s="8"/>
-      <c r="L205" s="10"/>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="15"/>
       <c r="B206" s="15"/>
-      <c r="C206" s="21"/>
+      <c r="C206" s="19"/>
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
       <c r="F206" s="16"/>
       <c r="G206" s="10"/>
-      <c r="I206" s="15"/>
-      <c r="J206" s="9"/>
-      <c r="L206" s="15"/>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="15"/>
       <c r="B207" s="15"/>
-      <c r="C207" s="21"/>
+      <c r="C207" s="19"/>
       <c r="D207" s="15"/>
       <c r="E207" s="10"/>
       <c r="F207" s="16"/>
       <c r="G207" s="10"/>
-      <c r="I207" s="15"/>
-      <c r="J207" s="9"/>
-      <c r="L207" s="10"/>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="15"/>
       <c r="B208" s="10"/>
-      <c r="C208" s="24"/>
+      <c r="C208" s="22"/>
       <c r="D208" s="15"/>
       <c r="E208" s="15"/>
       <c r="F208" s="16"/>
       <c r="G208" s="10"/>
-      <c r="I208" s="10"/>
-      <c r="J208" s="8"/>
-      <c r="L208" s="15"/>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="15"/>
       <c r="B209" s="10"/>
-      <c r="C209" s="24"/>
+      <c r="C209" s="22"/>
       <c r="D209" s="15"/>
       <c r="E209" s="10"/>
       <c r="F209" s="16"/>
       <c r="G209" s="10"/>
-      <c r="I209" s="10"/>
-      <c r="J209" s="8"/>
-      <c r="L209" s="10"/>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="15"/>
       <c r="B210" s="15"/>
-      <c r="C210" s="21"/>
+      <c r="C210" s="19"/>
       <c r="D210" s="15"/>
       <c r="E210" s="15"/>
       <c r="F210" s="16"/>
       <c r="G210" s="10"/>
-      <c r="I210" s="15"/>
-      <c r="J210" s="9"/>
-      <c r="L210" s="15"/>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="15"/>
       <c r="B211" s="15"/>
-      <c r="C211" s="21"/>
+      <c r="C211" s="19"/>
       <c r="D211" s="15"/>
       <c r="E211" s="10"/>
       <c r="F211" s="16"/>
       <c r="G211" s="10"/>
-      <c r="I211" s="15"/>
-      <c r="J211" s="9"/>
-      <c r="L211" s="10"/>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="15"/>
       <c r="B212" s="10"/>
-      <c r="C212" s="24"/>
+      <c r="C212" s="22"/>
       <c r="D212" s="15"/>
       <c r="E212" s="15"/>
       <c r="F212" s="16"/>
       <c r="G212" s="10"/>
-      <c r="I212" s="10"/>
-      <c r="J212" s="8"/>
-      <c r="L212" s="15"/>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="15"/>
       <c r="B213" s="10"/>
-      <c r="C213" s="24"/>
+      <c r="C213" s="22"/>
       <c r="D213" s="15"/>
       <c r="E213" s="10"/>
       <c r="F213" s="16"/>
       <c r="G213" s="10"/>
-      <c r="I213" s="10"/>
-      <c r="J213" s="8"/>
-      <c r="L213" s="10"/>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="15"/>
       <c r="B214" s="10"/>
-      <c r="C214" s="24"/>
+      <c r="C214" s="22"/>
       <c r="D214" s="15"/>
       <c r="E214" s="15"/>
       <c r="F214" s="16"/>
       <c r="G214" s="10"/>
-      <c r="I214" s="10"/>
-      <c r="J214" s="8"/>
-      <c r="L214" s="15"/>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="15"/>
       <c r="B215" s="10"/>
-      <c r="C215" s="24"/>
+      <c r="C215" s="22"/>
       <c r="D215" s="15"/>
       <c r="E215" s="10"/>
       <c r="F215" s="16"/>
       <c r="G215" s="10"/>
-      <c r="I215" s="10"/>
-      <c r="J215" s="8"/>
-      <c r="L215" s="10"/>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="15"/>
       <c r="B216" s="10"/>
-      <c r="C216" s="24"/>
+      <c r="C216" s="22"/>
       <c r="D216" s="15"/>
       <c r="E216" s="10"/>
       <c r="F216" s="16"/>
       <c r="G216" s="10"/>
-      <c r="I216" s="10"/>
-      <c r="J216" s="8"/>
-      <c r="L216" s="10"/>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="15"/>
       <c r="B217" s="10"/>
-      <c r="C217" s="24"/>
+      <c r="C217" s="22"/>
       <c r="D217" s="15"/>
       <c r="E217" s="10"/>
       <c r="F217" s="16"/>
       <c r="G217" s="10"/>
-      <c r="I217" s="10"/>
-      <c r="J217" s="8"/>
-      <c r="L217" s="10"/>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="15"/>
       <c r="B218" s="10"/>
-      <c r="C218" s="24"/>
+      <c r="C218" s="22"/>
       <c r="D218" s="15"/>
       <c r="E218" s="15"/>
       <c r="F218" s="16"/>
       <c r="G218" s="10"/>
-      <c r="I218" s="10"/>
-      <c r="J218" s="8"/>
-      <c r="L218" s="15"/>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="15"/>
       <c r="B219" s="10"/>
-      <c r="C219" s="24"/>
+      <c r="C219" s="22"/>
       <c r="D219" s="15"/>
       <c r="E219" s="15"/>
       <c r="F219" s="16"/>
       <c r="G219" s="10"/>
-      <c r="I219" s="10"/>
-      <c r="J219" s="8"/>
-      <c r="L219" s="15"/>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="15"/>
       <c r="B220" s="10"/>
-      <c r="C220" s="24"/>
+      <c r="C220" s="22"/>
       <c r="D220" s="15"/>
       <c r="E220" s="15"/>
       <c r="F220" s="16"/>
       <c r="G220" s="10"/>
-      <c r="I220" s="10"/>
-      <c r="J220" s="8"/>
-      <c r="L220" s="15"/>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="15"/>
       <c r="B221" s="10"/>
-      <c r="C221" s="24"/>
+      <c r="C221" s="22"/>
       <c r="D221" s="15"/>
       <c r="E221" s="15"/>
       <c r="F221" s="16"/>
       <c r="G221" s="10"/>
-      <c r="I221" s="10"/>
-      <c r="J221" s="8"/>
-      <c r="L221" s="15"/>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="15"/>
       <c r="B222" s="10"/>
-      <c r="C222" s="24"/>
+      <c r="C222" s="22"/>
       <c r="D222" s="15"/>
       <c r="E222" s="15"/>
       <c r="F222" s="16"/>
       <c r="G222" s="10"/>
-      <c r="I222" s="10"/>
-      <c r="J222" s="8"/>
-      <c r="L222" s="15"/>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="15"/>
       <c r="B223" s="10"/>
-      <c r="C223" s="24"/>
+      <c r="C223" s="22"/>
       <c r="D223" s="15"/>
       <c r="E223" s="15"/>
       <c r="F223" s="16"/>
       <c r="G223" s="10"/>
-      <c r="I223" s="10"/>
-      <c r="J223" s="8"/>
-      <c r="L223" s="15"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" gridLines="1"/>
